--- a/data/balance_sheet/3digits/total/329_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/329_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>329-Manufacturing n.e.c.</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>329-Manufacturing n.e.c.</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,15 +915,20 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
-        <v>770467.6162099999</v>
+        <v>770467.61621</v>
       </c>
       <c r="D5" s="32" t="n">
         <v>937876.4370899999</v>
@@ -1493,29 +943,34 @@
         <v>1301012.49758</v>
       </c>
       <c r="H5" s="33" t="n">
-        <v>1588202.3602</v>
+        <v>1588205.79048</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>1891999.46295</v>
+        <v>1914435.33652</v>
       </c>
       <c r="J5" s="33" t="n">
-        <v>1872456.67159</v>
+        <v>2070748.24755</v>
       </c>
       <c r="K5" s="32" t="n">
         <v>2393655.95828</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>2832799.4473</v>
+        <v>2867920.68757</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>3100313.93223</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>3175087.9917</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>4612431.744</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
         <v>143716.67097</v>
@@ -1536,26 +991,31 @@
         <v>251692.88904</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>379076.55034</v>
+        <v>379456.29112</v>
       </c>
       <c r="J6" s="33" t="n">
-        <v>207989.80844</v>
+        <v>290958.6383</v>
       </c>
       <c r="K6" s="23" t="n">
         <v>367188.65191</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>392673.22581</v>
+        <v>396261.41935</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>489406.78995</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>504352.78748</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>1118146.194</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
         <v>17111.9694</v>
@@ -1576,32 +1036,37 @@
         <v>21616.86993</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>21864.16118</v>
+        <v>21897.73415</v>
       </c>
       <c r="J7" s="21" t="n">
-        <v>30590.79695</v>
+        <v>30647.87852</v>
       </c>
       <c r="K7" s="22" t="n">
-        <v>45882.33556</v>
+        <v>45882.33555999999</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>39433.49832</v>
+        <v>41551.06415</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>67851.69603000001</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>72542.5129</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>101947.474</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
-        <v>70382.69760000001</v>
+        <v>70382.6976</v>
       </c>
       <c r="D8" s="22" t="n">
-        <v>79946.62633000001</v>
+        <v>79946.62633</v>
       </c>
       <c r="E8" s="22" t="n">
         <v>90375.91099</v>
@@ -1616,26 +1081,31 @@
         <v>110202.60314</v>
       </c>
       <c r="I8" s="22" t="n">
-        <v>202823.21456</v>
+        <v>202971.46268</v>
       </c>
       <c r="J8" s="21" t="n">
-        <v>110416.7615</v>
+        <v>132749.02474</v>
       </c>
       <c r="K8" s="22" t="n">
         <v>167125.86656</v>
       </c>
       <c r="L8" s="22" t="n">
-        <v>171605.52162</v>
+        <v>172731.48816</v>
       </c>
       <c r="M8" s="22" t="n">
-        <v>187291.50763</v>
-      </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+        <v>192718.28379</v>
+      </c>
+      <c r="N8" s="22" t="n">
+        <v>230179.86</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
         <v>67775.30128</v>
@@ -1644,7 +1114,7 @@
         <v>90797.05125</v>
       </c>
       <c r="E9" s="22" t="n">
-        <v>80394.00800000002</v>
+        <v>80394.008</v>
       </c>
       <c r="F9" s="21" t="n">
         <v>90720.15918</v>
@@ -1656,26 +1126,31 @@
         <v>132903.20292</v>
       </c>
       <c r="I9" s="22" t="n">
-        <v>173406.71581</v>
+        <v>173587.54187</v>
       </c>
       <c r="J9" s="21" t="n">
-        <v>88332.8184</v>
+        <v>148912.30345</v>
       </c>
       <c r="K9" s="22" t="n">
         <v>172387.86122</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>209735.10265</v>
+        <v>210075.10182</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>254484.87459</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>260707.97133</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>806476.671</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
         <v>11957.12741</v>
@@ -1708,14 +1183,19 @@
         <v>33819.56511</v>
       </c>
       <c r="M10" s="22" t="n">
-        <v>25624.76508</v>
-      </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+        <v>27029.89421</v>
+      </c>
+      <c r="N10" s="22" t="n">
+        <v>35901.312</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>403.8301</v>
@@ -1733,10 +1213,10 @@
         <v>2692.51439</v>
       </c>
       <c r="H11" s="21" t="n">
-        <v>4891.08536</v>
+        <v>4891.085359999999</v>
       </c>
       <c r="I11" s="22" t="n">
-        <v>3353.84734</v>
+        <v>3370.94097</v>
       </c>
       <c r="J11" s="21" t="n">
         <v>2195.84762</v>
@@ -1745,17 +1225,22 @@
         <v>6284.05724</v>
       </c>
       <c r="L11" s="22" t="n">
-        <v>5718.66833</v>
+        <v>5723.33033</v>
       </c>
       <c r="M11" s="22" t="n">
-        <v>5403.47678</v>
-      </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+        <v>5413.91367</v>
+      </c>
+      <c r="N11" s="22" t="n">
+        <v>15443.501</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>2915.36714</v>
@@ -1773,10 +1258,10 @@
         <v>5889.08695</v>
       </c>
       <c r="H12" s="33" t="n">
-        <v>7841.75179</v>
+        <v>7841.751789999999</v>
       </c>
       <c r="I12" s="23" t="n">
-        <v>9586.99137</v>
+        <v>9586.991370000002</v>
       </c>
       <c r="J12" s="33" t="n">
         <v>9745.88366</v>
@@ -1790,12 +1275,17 @@
       <c r="M12" s="23" t="n">
         <v>9184.871710000001</v>
       </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+      <c r="N12" s="23" t="n">
+        <v>34145.743</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>0</v>
@@ -1819,7 +1309,7 @@
         <v>459.90035</v>
       </c>
       <c r="J13" s="21" t="n">
-        <v>711.2207</v>
+        <v>711.2207000000001</v>
       </c>
       <c r="K13" s="22" t="n">
         <v>844.67252</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>678.25257</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>6851.501</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>470.3934</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>899.0206899999999</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>855.88</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>2203.40027</v>
@@ -1890,10 +1390,10 @@
         <v>4012.65549</v>
       </c>
       <c r="G15" s="22" t="n">
-        <v>4435.282230000001</v>
+        <v>4435.28223</v>
       </c>
       <c r="H15" s="21" t="n">
-        <v>5128.88937</v>
+        <v>5128.889369999999</v>
       </c>
       <c r="I15" s="22" t="n">
         <v>6539.07999</v>
@@ -1910,12 +1410,17 @@
       <c r="M15" s="22" t="n">
         <v>5013.392279999999</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>20854.002</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>241.57347</v>
@@ -1924,7 +1429,7 @@
         <v>102.20628</v>
       </c>
       <c r="E16" s="22" t="n">
-        <v>558.0770199999999</v>
+        <v>558.0770200000001</v>
       </c>
       <c r="F16" s="21" t="n">
         <v>1510.15514</v>
@@ -1942,7 +1447,7 @@
         <v>1682.82393</v>
       </c>
       <c r="K16" s="22" t="n">
-        <v>2957.65998</v>
+        <v>2957.659979999999</v>
       </c>
       <c r="L16" s="22" t="n">
         <v>9261.627470000001</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>2594.20617</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>5584.36</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,12 +1500,17 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
         <v>260698.34996</v>
@@ -2010,32 +1525,37 @@
         <v>429458.22464</v>
       </c>
       <c r="G18" s="23" t="n">
-        <v>405190.91579</v>
+        <v>405190.9157899999</v>
       </c>
       <c r="H18" s="33" t="n">
-        <v>536746.69257</v>
+        <v>536746.6925700001</v>
       </c>
       <c r="I18" s="23" t="n">
-        <v>627504.55712</v>
+        <v>634251.23146</v>
       </c>
       <c r="J18" s="33" t="n">
-        <v>700507.2248399999</v>
+        <v>751527.0968499999</v>
       </c>
       <c r="K18" s="23" t="n">
         <v>893332.54076</v>
       </c>
       <c r="L18" s="23" t="n">
-        <v>1036111.15729</v>
+        <v>1046220.04117</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>1215979.94193</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>1233361.09658</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>1676573.882</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
         <v>211357.1214</v>
@@ -2044,7 +1564,7 @@
         <v>251397.0168</v>
       </c>
       <c r="E19" s="22" t="n">
-        <v>276331.4095299999</v>
+        <v>276331.40953</v>
       </c>
       <c r="F19" s="21" t="n">
         <v>321028.74546</v>
@@ -2056,26 +1576,31 @@
         <v>376549.2614</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>441416.77371</v>
+        <v>445946.54917</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>445551.97967</v>
+        <v>496571.8516800001</v>
       </c>
       <c r="K19" s="22" t="n">
         <v>649790.01023</v>
       </c>
       <c r="L19" s="22" t="n">
-        <v>778374.78041</v>
+        <v>786994.77203</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>953818.30535</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>966850.6961099999</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>1303651.556</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
         <v>38557.60163</v>
@@ -2096,7 +1621,7 @@
         <v>139053.47193</v>
       </c>
       <c r="I20" s="22" t="n">
-        <v>158808.50363</v>
+        <v>161020.90251</v>
       </c>
       <c r="J20" s="21" t="n">
         <v>226476.08995</v>
@@ -2105,17 +1630,22 @@
         <v>220596.39987</v>
       </c>
       <c r="L20" s="22" t="n">
-        <v>235095.3025</v>
+        <v>235204.89401</v>
       </c>
       <c r="M20" s="22" t="n">
-        <v>236672.82473</v>
-      </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+        <v>240453.66968</v>
+      </c>
+      <c r="N20" s="22" t="n">
+        <v>337713.839</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>29.96284</v>
@@ -2148,14 +1678,19 @@
         <v>1006.49675</v>
       </c>
       <c r="M21" s="22" t="n">
-        <v>2561.66339</v>
-      </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+        <v>3646.86357</v>
+      </c>
+      <c r="N21" s="22" t="n">
+        <v>4661.523</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,12 +1725,17 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>759.12854</v>
@@ -2216,7 +1756,7 @@
         <v>1048.04566</v>
       </c>
       <c r="I23" s="22" t="n">
-        <v>2489.33361</v>
+        <v>2493.83361</v>
       </c>
       <c r="J23" s="21" t="n">
         <v>2268.6901</v>
@@ -2225,17 +1765,22 @@
         <v>3343.43711</v>
       </c>
       <c r="L23" s="22" t="n">
-        <v>2456.57898</v>
+        <v>2465.36541</v>
       </c>
       <c r="M23" s="22" t="n">
         <v>3414.8702</v>
       </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+      <c r="N23" s="22" t="n">
+        <v>6135.012</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>6448.97092</v>
@@ -2265,17 +1810,22 @@
         <v>13483.6143</v>
       </c>
       <c r="L24" s="22" t="n">
-        <v>13216.87147</v>
+        <v>14587.38579</v>
       </c>
       <c r="M24" s="22" t="n">
-        <v>16360.76703</v>
-      </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+        <v>17915.51606</v>
+      </c>
+      <c r="N24" s="22" t="n">
+        <v>24118.446</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
         <v>16563.08724</v>
@@ -2296,10 +1846,10 @@
         <v>27593.84126</v>
       </c>
       <c r="I25" s="22" t="n">
-        <v>29774.56769</v>
+        <v>29946.96715</v>
       </c>
       <c r="J25" s="21" t="n">
-        <v>21993.95244</v>
+        <v>31429.90287</v>
       </c>
       <c r="K25" s="22" t="n">
         <v>32362.59587</v>
@@ -2308,14 +1858,19 @@
         <v>36687.93568</v>
       </c>
       <c r="M25" s="22" t="n">
-        <v>40033.47637</v>
-      </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+        <v>40209.64364</v>
+      </c>
+      <c r="N25" s="22" t="n">
+        <v>45541.435</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>12957.59693</v>
@@ -2336,10 +1891,10 @@
         <v>18687.86839</v>
       </c>
       <c r="I26" s="22" t="n">
-        <v>21040.30205</v>
+        <v>21212.70151</v>
       </c>
       <c r="J26" s="21" t="n">
-        <v>14925.2301</v>
+        <v>24361.18053</v>
       </c>
       <c r="K26" s="22" t="n">
         <v>25849.33685</v>
@@ -2348,14 +1903,19 @@
         <v>28713.815</v>
       </c>
       <c r="M26" s="22" t="n">
-        <v>31758.63836</v>
-      </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+        <v>31836.43554</v>
+      </c>
+      <c r="N26" s="22" t="n">
+        <v>35924.883</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
         <v>21958.07323</v>
@@ -2373,29 +1933,34 @@
         <v>22511.79149</v>
       </c>
       <c r="H27" s="33" t="n">
-        <v>30490.27521</v>
+        <v>30493.70549</v>
       </c>
       <c r="I27" s="23" t="n">
-        <v>29211.44368</v>
+        <v>29213.13268</v>
       </c>
       <c r="J27" s="33" t="n">
-        <v>40724.73131</v>
+        <v>40694.00640999999</v>
       </c>
       <c r="K27" s="23" t="n">
         <v>73182.52853</v>
       </c>
       <c r="L27" s="23" t="n">
-        <v>114809.04079</v>
+        <v>116901.08854</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>120893.92563</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>127557.47073</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>174572.473</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
         <v>12200.53466</v>
@@ -2413,7 +1978,7 @@
         <v>5261.68484</v>
       </c>
       <c r="H28" s="21" t="n">
-        <v>7973.86567</v>
+        <v>7977.295949999999</v>
       </c>
       <c r="I28" s="22" t="n">
         <v>13263.35226</v>
@@ -2425,17 +1990,22 @@
         <v>32160.98932</v>
       </c>
       <c r="L28" s="22" t="n">
-        <v>34496.16128</v>
+        <v>36180.02937</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>34742.72045</v>
-      </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+        <v>35884.5743</v>
+      </c>
+      <c r="N28" s="22" t="n">
+        <v>62150.781</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>63.58689</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>2690.51702</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>0</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>343.40713</v>
@@ -2545,23 +2125,28 @@
         <v>1005.62134</v>
       </c>
       <c r="L31" s="22" t="n">
-        <v>1004.83595</v>
+        <v>1019.83229</v>
       </c>
       <c r="M31" s="22" t="n">
         <v>1061.40454</v>
       </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+      <c r="N31" s="22" t="n">
+        <v>1695.448</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
         <v>9350.544550000001</v>
       </c>
       <c r="D32" s="22" t="n">
-        <v>8065.804139999999</v>
+        <v>8065.80414</v>
       </c>
       <c r="E32" s="22" t="n">
         <v>8949.34143</v>
@@ -2576,26 +2161,31 @@
         <v>21609.23127</v>
       </c>
       <c r="I32" s="22" t="n">
-        <v>15195.9444</v>
+        <v>15197.6334</v>
       </c>
       <c r="J32" s="21" t="n">
-        <v>23883.91435</v>
+        <v>23853.18945</v>
       </c>
       <c r="K32" s="22" t="n">
         <v>39912.90444999999</v>
       </c>
       <c r="L32" s="22" t="n">
-        <v>77087.25239000001</v>
+        <v>77480.43570999999</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>82392.43975000001</v>
-      </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+        <v>87914.13099999999</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>110719.4</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>0.0003</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>6.84387</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>6.844</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>0.0003</v>
@@ -2710,12 +2310,17 @@
       <c r="M35" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
         <v>317466.59987</v>
@@ -2736,26 +2341,31 @@
         <v>696304.88988</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>759729.09749</v>
+        <v>774923.73089</v>
       </c>
       <c r="J36" s="33" t="n">
-        <v>839188.6178499999</v>
+        <v>893184.2334299999</v>
       </c>
       <c r="K36" s="23" t="n">
-        <v>942594.40658</v>
+        <v>942594.4065800001</v>
       </c>
       <c r="L36" s="23" t="n">
-        <v>1136729.84975</v>
+        <v>1146094.58223</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>1106462.27758</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>1139438.40472</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>1392895.98</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
         <v>140182.7629</v>
@@ -2776,26 +2386,31 @@
         <v>231215.72096</v>
       </c>
       <c r="I37" s="22" t="n">
-        <v>251848.55669</v>
+        <v>256674.95605</v>
       </c>
       <c r="J37" s="21" t="n">
-        <v>262807.43893</v>
+        <v>293054.09524</v>
       </c>
       <c r="K37" s="22" t="n">
         <v>333031.71115</v>
       </c>
       <c r="L37" s="22" t="n">
-        <v>386431.54874</v>
+        <v>387941.29753</v>
       </c>
       <c r="M37" s="22" t="n">
-        <v>409240.47923</v>
-      </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+        <v>412852.11768</v>
+      </c>
+      <c r="N37" s="22" t="n">
+        <v>476391.836</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>19428.89546</v>
@@ -2813,29 +2428,34 @@
         <v>32381.55906</v>
       </c>
       <c r="H38" s="21" t="n">
-        <v>40609.04609999999</v>
+        <v>40609.0461</v>
       </c>
       <c r="I38" s="22" t="n">
-        <v>50172.06792</v>
+        <v>50177.2205</v>
       </c>
       <c r="J38" s="21" t="n">
-        <v>63860.70724</v>
+        <v>63951.26623</v>
       </c>
       <c r="K38" s="22" t="n">
-        <v>72029.20727000001</v>
+        <v>72029.20727</v>
       </c>
       <c r="L38" s="22" t="n">
-        <v>83456.31364000001</v>
+        <v>84750.56052</v>
       </c>
       <c r="M38" s="22" t="n">
-        <v>95264.81137000001</v>
-      </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+        <v>96788.41849000001</v>
+      </c>
+      <c r="N38" s="22" t="n">
+        <v>65549.29700000001</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>62627.27736</v>
@@ -2856,29 +2476,34 @@
         <v>179861.66264</v>
       </c>
       <c r="I39" s="22" t="n">
-        <v>208681.97033</v>
+        <v>216451.11103</v>
       </c>
       <c r="J39" s="21" t="n">
-        <v>244012.65002</v>
+        <v>253944.77793</v>
       </c>
       <c r="K39" s="22" t="n">
         <v>213178.9075</v>
       </c>
       <c r="L39" s="22" t="n">
-        <v>243943.91484</v>
+        <v>244344.34148</v>
       </c>
       <c r="M39" s="22" t="n">
-        <v>201006.56313</v>
-      </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+        <v>211480.998</v>
+      </c>
+      <c r="N39" s="22" t="n">
+        <v>264283.081</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
-        <v>66227.33347</v>
+        <v>66227.33347000001</v>
       </c>
       <c r="D40" s="22" t="n">
         <v>100585.96797</v>
@@ -2896,26 +2521,31 @@
         <v>161669.38455</v>
       </c>
       <c r="I40" s="22" t="n">
-        <v>165696.12013</v>
+        <v>167831.8453</v>
       </c>
       <c r="J40" s="21" t="n">
-        <v>179099.79221</v>
+        <v>183088.08693</v>
       </c>
       <c r="K40" s="22" t="n">
         <v>203886.69147</v>
       </c>
       <c r="L40" s="22" t="n">
-        <v>260288.54651</v>
+        <v>264130.45589</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>214606.73996</v>
-      </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+        <v>225497.90281</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>255244.552</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
         <v>3916.60743</v>
@@ -2927,7 +2557,7 @@
         <v>4454.60833</v>
       </c>
       <c r="F41" s="21" t="n">
-        <v>5332.862800000001</v>
+        <v>5332.8628</v>
       </c>
       <c r="G41" s="22" t="n">
         <v>4462.86533</v>
@@ -2939,23 +2569,28 @@
         <v>5349.89542</v>
       </c>
       <c r="J41" s="21" t="n">
-        <v>7002.05698</v>
+        <v>7908.164180000001</v>
       </c>
       <c r="K41" s="22" t="n">
         <v>9286.29874</v>
       </c>
       <c r="L41" s="22" t="n">
-        <v>16375.06992</v>
+        <v>16406.04293</v>
       </c>
       <c r="M41" s="22" t="n">
-        <v>17698.7381</v>
-      </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+        <v>17879.54174</v>
+      </c>
+      <c r="N41" s="22" t="n">
+        <v>20079.344</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>28.86954</v>
@@ -2990,12 +2625,17 @@
       <c r="M42" s="22" t="n">
         <v>9.263680000000001</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>9.263999999999999</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
         <v>25112.59279</v>
@@ -3007,7 +2647,7 @@
         <v>37116.58573000001</v>
       </c>
       <c r="F43" s="21" t="n">
-        <v>40771.82348000001</v>
+        <v>40771.82348</v>
       </c>
       <c r="G43" s="22" t="n">
         <v>61035.61349</v>
@@ -3016,26 +2656,31 @@
         <v>77488.97753</v>
       </c>
       <c r="I43" s="22" t="n">
-        <v>77980.48699999999</v>
+        <v>78438.70259</v>
       </c>
       <c r="J43" s="21" t="n">
-        <v>82405.97246999999</v>
+        <v>91237.84292000001</v>
       </c>
       <c r="K43" s="22" t="n">
         <v>111190.85413</v>
       </c>
       <c r="L43" s="22" t="n">
-        <v>146243.71978</v>
+        <v>148531.14756</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>168654.20947</v>
-      </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+        <v>174948.68968</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>311357.134</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>383.59577</v>
@@ -3062,7 +2707,7 @@
         <v>254.84965</v>
       </c>
       <c r="K44" s="23" t="n">
-        <v>933.3210799999999</v>
+        <v>933.3210800000001</v>
       </c>
       <c r="L44" s="23" t="n">
         <v>496.00388</v>
@@ -3070,12 +2715,17 @@
       <c r="M44" s="23" t="n">
         <v>58.64785</v>
       </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+      <c r="N44" s="23" t="n">
+        <v>93.55800000000001</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>383.59577</v>
@@ -3102,7 +2752,7 @@
         <v>254.84965</v>
       </c>
       <c r="K45" s="22" t="n">
-        <v>933.3210799999999</v>
+        <v>933.3210800000001</v>
       </c>
       <c r="L45" s="22" t="n">
         <v>496.00388</v>
@@ -3110,12 +2760,17 @@
       <c r="M45" s="22" t="n">
         <v>58.64785</v>
       </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+      <c r="N45" s="22" t="n">
+        <v>93.55800000000001</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -3190,12 +2850,17 @@
       <c r="M47" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>2573.98475</v>
@@ -3213,29 +2878,34 @@
         <v>6741.773990000001</v>
       </c>
       <c r="H48" s="45" t="n">
-        <v>6143.433619999999</v>
+        <v>6143.43362</v>
       </c>
       <c r="I48" s="46" t="n">
         <v>9433.165350000001</v>
       </c>
       <c r="J48" s="45" t="n">
-        <v>11038.53158</v>
+        <v>11386.59348</v>
       </c>
       <c r="K48" s="46" t="n">
         <v>11423.42149</v>
       </c>
       <c r="L48" s="46" t="n">
-        <v>18015.99858</v>
+        <v>18289.8903</v>
       </c>
       <c r="M48" s="46" t="n">
-        <v>17493.24323</v>
-      </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+        <v>17894.76747</v>
+      </c>
+      <c r="N48" s="46" t="n">
+        <v>20337.906</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
         <v>2452.06717</v>
@@ -3244,78 +2914,88 @@
         <v>3509.40851</v>
       </c>
       <c r="E49" s="22" t="n">
-        <v>3676.32489</v>
+        <v>3676.324890000001</v>
       </c>
       <c r="F49" s="21" t="n">
-        <v>5128.542719999999</v>
+        <v>5128.54272</v>
       </c>
       <c r="G49" s="22" t="n">
-        <v>5742.846469999999</v>
+        <v>5742.84647</v>
       </c>
       <c r="H49" s="21" t="n">
         <v>5455.90583</v>
       </c>
       <c r="I49" s="22" t="n">
-        <v>7952.601029999999</v>
+        <v>7952.60103</v>
       </c>
       <c r="J49" s="21" t="n">
-        <v>10096.15368</v>
+        <v>10096.02321</v>
       </c>
       <c r="K49" s="22" t="n">
         <v>10056.80252</v>
       </c>
       <c r="L49" s="22" t="n">
-        <v>17278.04599</v>
+        <v>17551.83689</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>16581.24703</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>16982.77127</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>19165.115</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
         <v>121.91758</v>
       </c>
       <c r="D50" s="22" t="n">
-        <v>94.42537</v>
+        <v>94.42537000000002</v>
       </c>
       <c r="E50" s="22" t="n">
         <v>144.89098</v>
       </c>
       <c r="F50" s="21" t="n">
-        <v>697.8127000000002</v>
+        <v>697.8126999999999</v>
       </c>
       <c r="G50" s="22" t="n">
         <v>998.9275200000001</v>
       </c>
       <c r="H50" s="21" t="n">
-        <v>687.5277899999999</v>
+        <v>687.52779</v>
       </c>
       <c r="I50" s="22" t="n">
         <v>1480.56432</v>
       </c>
       <c r="J50" s="21" t="n">
-        <v>942.3779000000001</v>
+        <v>1290.57027</v>
       </c>
       <c r="K50" s="22" t="n">
         <v>1366.61897</v>
       </c>
       <c r="L50" s="22" t="n">
-        <v>737.95259</v>
+        <v>738.0534099999999</v>
       </c>
       <c r="M50" s="22" t="n">
         <v>911.9961999999999</v>
       </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+      <c r="N50" s="22" t="n">
+        <v>1172.791</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>20754.97452</v>
@@ -3330,32 +3010,37 @@
         <v>37781.20800999999</v>
       </c>
       <c r="G51" s="46" t="n">
-        <v>38763.90911</v>
+        <v>38763.90911000001</v>
       </c>
       <c r="H51" s="45" t="n">
-        <v>58924.735</v>
+        <v>58924.73500000001</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>77202.80795</v>
+        <v>77315.944</v>
       </c>
       <c r="J51" s="45" t="n">
-        <v>63007.02426000001</v>
+        <v>72996.94576999999</v>
       </c>
       <c r="K51" s="46" t="n">
-        <v>92288.20279</v>
+        <v>92288.20279000001</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>117240.78793</v>
+        <v>126934.27883</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>140834.23435</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>143239.94516</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>195666.008</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
         <v>11477.70963</v>
@@ -3376,26 +3061,31 @@
         <v>42285.0015</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>48882.07939</v>
+        <v>48929.43658</v>
       </c>
       <c r="J52" s="21" t="n">
-        <v>42560.33289</v>
+        <v>43927.95719000001</v>
       </c>
       <c r="K52" s="22" t="n">
-        <v>60024.58877</v>
+        <v>60024.58876999999</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>87212.79684000001</v>
+        <v>87943.21571999999</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>92494.86573</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>94655.71098</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>138777.769</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>374.93032</v>
@@ -3428,14 +3118,19 @@
         <v>1162.3093</v>
       </c>
       <c r="M53" s="22" t="n">
-        <v>589.905</v>
-      </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+        <v>608.5178100000001</v>
+      </c>
+      <c r="N53" s="22" t="n">
+        <v>1025.534</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>1721.53332</v>
@@ -3459,7 +3154,7 @@
         <v>2234.96065</v>
       </c>
       <c r="J54" s="21" t="n">
-        <v>5001.473730000001</v>
+        <v>5001.47373</v>
       </c>
       <c r="K54" s="22" t="n">
         <v>3913.57873</v>
@@ -3468,14 +3163,19 @@
         <v>5430.900009999999</v>
       </c>
       <c r="M54" s="22" t="n">
-        <v>8273.13171</v>
-      </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+        <v>8276.959710000001</v>
+      </c>
+      <c r="N54" s="22" t="n">
+        <v>8891.578</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
         <v>5660.413020000001</v>
@@ -3499,23 +3199,28 @@
         <v>20793.98288</v>
       </c>
       <c r="J55" s="21" t="n">
-        <v>2176.48329</v>
+        <v>10400.98098</v>
       </c>
       <c r="K55" s="22" t="n">
         <v>10248.71865</v>
       </c>
       <c r="L55" s="22" t="n">
-        <v>12039.20679</v>
+        <v>12052.95234</v>
       </c>
       <c r="M55" s="22" t="n">
-        <v>18250.45879</v>
-      </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+        <v>18252.25267</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>24403.249</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>1318.52799</v>
@@ -3524,7 +3229,7 @@
         <v>4919.83612</v>
       </c>
       <c r="E56" s="22" t="n">
-        <v>5207.516819999999</v>
+        <v>5207.516820000001</v>
       </c>
       <c r="F56" s="21" t="n">
         <v>5637.426509999999</v>
@@ -3536,26 +3241,31 @@
         <v>2772.89744</v>
       </c>
       <c r="I56" s="22" t="n">
-        <v>2563.4254</v>
+        <v>2586.24365</v>
       </c>
       <c r="J56" s="21" t="n">
-        <v>11511.2552</v>
+        <v>11909.05472</v>
       </c>
       <c r="K56" s="22" t="n">
         <v>13837.20831</v>
       </c>
       <c r="L56" s="22" t="n">
-        <v>9362.645550000001</v>
+        <v>18312.07284</v>
       </c>
       <c r="M56" s="22" t="n">
-        <v>19349.39379</v>
-      </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+        <v>19532.13785</v>
+      </c>
+      <c r="N56" s="22" t="n">
+        <v>19705.733</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>145.79731</v>
@@ -3576,7 +3286,7 @@
         <v>490.06398</v>
       </c>
       <c r="I57" s="22" t="n">
-        <v>599.6414199999999</v>
+        <v>642.60203</v>
       </c>
       <c r="J57" s="21" t="n">
         <v>768.29512</v>
@@ -3588,14 +3298,19 @@
         <v>1063.96953</v>
       </c>
       <c r="M57" s="22" t="n">
-        <v>1088.31445</v>
-      </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+        <v>1126.20126</v>
+      </c>
+      <c r="N57" s="22" t="n">
+        <v>1861.632</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>24.18514</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>2.44314</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>220.609</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>31.87779</v>
@@ -3665,16 +3385,21 @@
         <v>2890.65702</v>
       </c>
       <c r="L59" s="22" t="n">
-        <v>965.88685</v>
+        <v>965.78603</v>
       </c>
       <c r="M59" s="22" t="n">
         <v>785.72174</v>
       </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+      <c r="N59" s="22" t="n">
+        <v>779.904</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,12 +3434,17 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
         <v>367394.95398</v>
@@ -3735,26 +3465,31 @@
         <v>560480.51761</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>656918.8107</v>
+        <v>664407.898</v>
       </c>
       <c r="J61" s="37" t="n">
-        <v>734628.6552799999</v>
+        <v>788093.9637199999</v>
       </c>
       <c r="K61" s="36" t="n">
         <v>853758.1513100001</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>1006986.74535</v>
+        <v>1009577.9836</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>1142449.94671</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>1155966.80653</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>1502494.997</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
         <v>1922.74535</v>
@@ -3766,7 +3501,7 @@
         <v>1874.39347</v>
       </c>
       <c r="F62" s="37" t="n">
-        <v>5267.037520000001</v>
+        <v>5267.03752</v>
       </c>
       <c r="G62" s="36" t="n">
         <v>3289.56834</v>
@@ -3775,26 +3510,31 @@
         <v>3710.02317</v>
       </c>
       <c r="I62" s="36" t="n">
-        <v>4124.63032</v>
+        <v>4125.446120000001</v>
       </c>
       <c r="J62" s="37" t="n">
-        <v>10990.87601</v>
+        <v>11169.97593</v>
       </c>
       <c r="K62" s="36" t="n">
         <v>5451.97352</v>
       </c>
       <c r="L62" s="36" t="n">
-        <v>9894.694509999999</v>
+        <v>9901.55882</v>
       </c>
       <c r="M62" s="36" t="n">
-        <v>7815.55402</v>
-      </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+        <v>7894.33972</v>
+      </c>
+      <c r="N62" s="36" t="n">
+        <v>12019.315</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>307.39795</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>3.93007</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>30.809</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>577</v>
@@ -3869,12 +3614,17 @@
       <c r="M64" s="22" t="n">
         <v>5057.5</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>7563.438</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,21 +3704,26 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
         <v>1038.3474</v>
       </c>
       <c r="D67" s="22" t="n">
-        <v>593.67405</v>
+        <v>593.6740500000001</v>
       </c>
       <c r="E67" s="22" t="n">
-        <v>863.6584900000001</v>
+        <v>863.65849</v>
       </c>
       <c r="F67" s="21" t="n">
         <v>1185.66589</v>
@@ -3975,26 +3735,31 @@
         <v>1262.38784</v>
       </c>
       <c r="I67" s="22" t="n">
-        <v>2603.72749</v>
+        <v>2604.54329</v>
       </c>
       <c r="J67" s="21" t="n">
-        <v>2850.20089</v>
+        <v>3029.30081</v>
       </c>
       <c r="K67" s="22" t="n">
         <v>2967.33819</v>
       </c>
       <c r="L67" s="22" t="n">
-        <v>3884.45451</v>
+        <v>3891.31882</v>
       </c>
       <c r="M67" s="22" t="n">
-        <v>2754.12395</v>
-      </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+        <v>2832.90965</v>
+      </c>
+      <c r="N67" s="22" t="n">
+        <v>4425.068</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,12 +3794,17 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>25471.90667</v>
@@ -4058,7 +3828,7 @@
         <v>36133.50868</v>
       </c>
       <c r="J69" s="37" t="n">
-        <v>32903.60318000001</v>
+        <v>32903.60318</v>
       </c>
       <c r="K69" s="36" t="n">
         <v>38051.29105</v>
@@ -4067,14 +3837,19 @@
         <v>13220.40136</v>
       </c>
       <c r="M69" s="36" t="n">
-        <v>23892.49719</v>
-      </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+        <v>23892.49719000001</v>
+      </c>
+      <c r="N69" s="36" t="n">
+        <v>21078.779</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>801.13323</v>
@@ -4109,12 +3884,17 @@
       <c r="M70" s="22" t="n">
         <v>4429.72665</v>
       </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+      <c r="N70" s="22" t="n">
+        <v>7241.854</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>24348.13606</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>13499.31628</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>8480</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>0</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>11.84995</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>1.016</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>310.78743</v>
@@ -4243,7 +4038,7 @@
         <v>295.71353</v>
       </c>
       <c r="E74" s="22" t="n">
-        <v>5412.027430000001</v>
+        <v>5412.02743</v>
       </c>
       <c r="F74" s="21" t="n">
         <v>826.86061</v>
@@ -4261,7 +4056,7 @@
         <v>4730.85313</v>
       </c>
       <c r="K74" s="22" t="n">
-        <v>5264.259399999999</v>
+        <v>5264.259400000001</v>
       </c>
       <c r="L74" s="22" t="n">
         <v>5367.45618</v>
@@ -4269,12 +4064,17 @@
       <c r="M74" s="22" t="n">
         <v>5963.45426</v>
       </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+      <c r="N74" s="22" t="n">
+        <v>5355.909</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,12 +4154,17 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
         <v>53671.47181</v>
@@ -4366,7 +4176,7 @@
         <v>36922.32591</v>
       </c>
       <c r="F77" s="33" t="n">
-        <v>42109.36573999999</v>
+        <v>42109.36574</v>
       </c>
       <c r="G77" s="23" t="n">
         <v>25821.2419</v>
@@ -4387,14 +4197,19 @@
         <v>40118.30717</v>
       </c>
       <c r="M77" s="23" t="n">
-        <v>44208.71415000001</v>
-      </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+        <v>44208.71415</v>
+      </c>
+      <c r="N77" s="23" t="n">
+        <v>40094.202</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>7.86401</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>6.65787</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>6.658</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,12 +4289,17 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>49936.87068</v>
@@ -4509,12 +4334,17 @@
       <c r="M80" s="22" t="n">
         <v>29855.05087</v>
       </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+      <c r="N80" s="22" t="n">
+        <v>25250.439</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>37.5</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>2877.0271</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>14115.77</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>14955.87</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>0</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>350</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>887.21002</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>231.23541</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>231.235</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,12 +4649,17 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
         <v>244364.12858</v>
@@ -4815,26 +4680,31 @@
         <v>452766.29169</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>521827.68625</v>
+        <v>529221.7977699999</v>
       </c>
       <c r="J88" s="33" t="n">
-        <v>551682.6138599999</v>
+        <v>598994.61966</v>
       </c>
       <c r="K88" s="23" t="n">
         <v>656204.3587699999</v>
       </c>
       <c r="L88" s="23" t="n">
-        <v>768315.0891999999</v>
+        <v>770086.65042</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>868497.9390799999</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>879636.32555</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>1234888.662</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>36610.88641</v>
@@ -4855,26 +4725,31 @@
         <v>44461.83778</v>
       </c>
       <c r="I89" s="22" t="n">
-        <v>44047.81008</v>
+        <v>44901.33859000001</v>
       </c>
       <c r="J89" s="21" t="n">
-        <v>60360.32440999999</v>
+        <v>63030.56028</v>
       </c>
       <c r="K89" s="22" t="n">
-        <v>84147.5895</v>
+        <v>84147.58950000002</v>
       </c>
       <c r="L89" s="22" t="n">
-        <v>53586.56511</v>
+        <v>53749.55692</v>
       </c>
       <c r="M89" s="22" t="n">
         <v>47035.01302</v>
       </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+      <c r="N89" s="22" t="n">
+        <v>64919.979</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>2970.53097</v>
@@ -4895,26 +4770,31 @@
         <v>1761.89212</v>
       </c>
       <c r="I90" s="22" t="n">
-        <v>3010.08182</v>
+        <v>3188.46902</v>
       </c>
       <c r="J90" s="21" t="n">
-        <v>3034.49444</v>
+        <v>3467.06809</v>
       </c>
       <c r="K90" s="22" t="n">
         <v>3209.06888</v>
       </c>
       <c r="L90" s="22" t="n">
-        <v>3718.385690000001</v>
+        <v>3718.38569</v>
       </c>
       <c r="M90" s="22" t="n">
-        <v>3807.10926</v>
-      </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+        <v>3811.95626</v>
+      </c>
+      <c r="N90" s="22" t="n">
+        <v>3742.501</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
         <v>120232.91277</v>
@@ -4935,29 +4815,34 @@
         <v>165000.1341</v>
       </c>
       <c r="I91" s="22" t="n">
-        <v>263993.24925</v>
+        <v>267694.49921</v>
       </c>
       <c r="J91" s="21" t="n">
-        <v>295919.98177</v>
+        <v>330750.72211</v>
       </c>
       <c r="K91" s="22" t="n">
-        <v>332037.5954499999</v>
+        <v>332037.59545</v>
       </c>
       <c r="L91" s="22" t="n">
-        <v>371935.06889</v>
+        <v>372177.5645</v>
       </c>
       <c r="M91" s="22" t="n">
-        <v>362787.6343200001</v>
-      </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+        <v>366439.08617</v>
+      </c>
+      <c r="N91" s="22" t="n">
+        <v>470612.985</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
-        <v>599703.9018000001</v>
+        <v>599703.9018</v>
       </c>
       <c r="D92" s="22" t="n">
         <v>620011.4662</v>
@@ -4966,35 +4851,40 @@
         <v>643947.98052</v>
       </c>
       <c r="F92" s="21" t="n">
-        <v>377757.6936400001</v>
+        <v>377757.69364</v>
       </c>
       <c r="G92" s="22" t="n">
         <v>675353.41102</v>
       </c>
       <c r="H92" s="21" t="n">
-        <v>708157.92216</v>
+        <v>708157.9221600001</v>
       </c>
       <c r="I92" s="22" t="n">
-        <v>728230.3832599999</v>
+        <v>732394.9090700001</v>
       </c>
       <c r="J92" s="21" t="n">
-        <v>644147.30298</v>
+        <v>732563.8656</v>
       </c>
       <c r="K92" s="22" t="n">
         <v>483337.20734</v>
       </c>
       <c r="L92" s="22" t="n">
-        <v>559612.1264</v>
+        <v>560630.4142999999</v>
       </c>
       <c r="M92" s="22" t="n">
-        <v>667833.96835</v>
-      </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+        <v>675285.1614600001</v>
+      </c>
+      <c r="N92" s="22" t="n">
+        <v>889323.823</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
         <v>45755.50165999999</v>
@@ -5012,29 +4902,34 @@
         <v>54858.31906</v>
       </c>
       <c r="H93" s="21" t="n">
-        <v>61355.46685</v>
+        <v>61355.46685000001</v>
       </c>
       <c r="I93" s="22" t="n">
-        <v>62897.30178</v>
+        <v>63958.61326999999</v>
       </c>
       <c r="J93" s="21" t="n">
-        <v>69566.05855</v>
+        <v>69627.23021000001</v>
       </c>
       <c r="K93" s="22" t="n">
         <v>74459.15044</v>
       </c>
       <c r="L93" s="22" t="n">
-        <v>91676.19092000001</v>
+        <v>92314.97990000001</v>
       </c>
       <c r="M93" s="22" t="n">
-        <v>118311.85916</v>
-      </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+        <v>119345.31845</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>167962.442</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
         <v>82426.738</v>
@@ -5055,26 +4950,31 @@
         <v>112328.32745</v>
       </c>
       <c r="I94" s="22" t="n">
-        <v>121002.06966</v>
+        <v>122077.10146</v>
       </c>
       <c r="J94" s="21" t="n">
-        <v>95641.72951999998</v>
+        <v>117718.50773</v>
       </c>
       <c r="K94" s="22" t="n">
         <v>101717.11113</v>
       </c>
       <c r="L94" s="22" t="n">
-        <v>122979.10881</v>
+        <v>123452.65714</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>137680.43362</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>139599.41153</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>179048.082</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>18834.15371</v>
@@ -5109,21 +5009,26 @@
       <c r="M95" s="22" t="n">
         <v>25700.02515</v>
       </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+      <c r="N95" s="22" t="n">
+        <v>26951.627</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
         <v>673647.19779</v>
       </c>
       <c r="D96" s="22" t="n">
-        <v>689794.72519</v>
+        <v>689794.7251899999</v>
       </c>
       <c r="E96" s="22" t="n">
-        <v>703296.5094200001</v>
+        <v>703296.5094199999</v>
       </c>
       <c r="F96" s="21" t="n">
         <v>397835.75954</v>
@@ -5132,29 +5037,34 @@
         <v>717256.2400699999</v>
       </c>
       <c r="H96" s="21" t="n">
-        <v>748962.25381</v>
+        <v>748962.2538099999</v>
       </c>
       <c r="I96" s="22" t="n">
-        <v>749785.0123899999</v>
+        <v>753478.8272599999</v>
       </c>
       <c r="J96" s="21" t="n">
-        <v>666574.0428799998</v>
+        <v>769197.47873</v>
       </c>
       <c r="K96" s="22" t="n">
         <v>484834.59887</v>
       </c>
       <c r="L96" s="22" t="n">
-        <v>536874.5324599999</v>
+        <v>537736.6728899999</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>608195.3370000001</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>611573.4685500001</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>754073.75</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>10893.04012</v>
@@ -5169,16 +5079,16 @@
         <v>20521.89446</v>
       </c>
       <c r="G97" s="22" t="n">
-        <v>37125.88433</v>
+        <v>37125.88433000001</v>
       </c>
       <c r="H97" s="21" t="n">
         <v>80455.53878</v>
       </c>
       <c r="I97" s="22" t="n">
-        <v>19903.99213</v>
+        <v>19957.88375</v>
       </c>
       <c r="J97" s="21" t="n">
-        <v>23391.76078</v>
+        <v>24839.14008</v>
       </c>
       <c r="K97" s="22" t="n">
         <v>34892.73117</v>
@@ -5189,12 +5099,17 @@
       <c r="M97" s="22" t="n">
         <v>90958.42900999999</v>
       </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+      <c r="N97" s="22" t="n">
+        <v>152924.229</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>583.66093</v>
@@ -5203,19 +5118,19 @@
         <v>4247.861510000001</v>
       </c>
       <c r="E98" s="22" t="n">
-        <v>8499.176530000001</v>
+        <v>8499.176529999999</v>
       </c>
       <c r="F98" s="21" t="n">
         <v>2696.82443</v>
       </c>
       <c r="G98" s="22" t="n">
-        <v>3613.259599999999</v>
+        <v>3613.2596</v>
       </c>
       <c r="H98" s="21" t="n">
         <v>1645.29695</v>
       </c>
       <c r="I98" s="22" t="n">
-        <v>993.9606600000002</v>
+        <v>993.9606600000001</v>
       </c>
       <c r="J98" s="21" t="n">
         <v>1206.45025</v>
@@ -5224,17 +5139,22 @@
         <v>1283.28654</v>
       </c>
       <c r="L98" s="22" t="n">
-        <v>31900.16319</v>
+        <v>31997.75221</v>
       </c>
       <c r="M98" s="22" t="n">
-        <v>22578.80419</v>
-      </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+        <v>23035.39305</v>
+      </c>
+      <c r="N98" s="22" t="n">
+        <v>33476.744</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
         <v>33589.56667</v>
@@ -5249,32 +5169,37 @@
         <v>30409.75429</v>
       </c>
       <c r="G99" s="23" t="n">
-        <v>35922.61082000001</v>
+        <v>35922.61082</v>
       </c>
       <c r="H99" s="33" t="n">
         <v>39570.72869</v>
       </c>
       <c r="I99" s="23" t="n">
-        <v>50181.20116999999</v>
+        <v>50232.26536999999</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>82055.37187999999</v>
+        <v>85633.70242000002</v>
       </c>
       <c r="K99" s="23" t="n">
         <v>94678.53072</v>
       </c>
       <c r="L99" s="23" t="n">
-        <v>128125.34271</v>
+        <v>128266.53082</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>149115.20337</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>149442.56905</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>141428.751</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>33457.99072</v>
@@ -5286,7 +5211,7 @@
         <v>29746.95403</v>
       </c>
       <c r="F100" s="21" t="n">
-        <v>28798.52712999999</v>
+        <v>28798.52713</v>
       </c>
       <c r="G100" s="22" t="n">
         <v>31576.46901</v>
@@ -5295,26 +5220,31 @@
         <v>34547.41431</v>
       </c>
       <c r="I100" s="22" t="n">
-        <v>45354.03625</v>
+        <v>45447.2189</v>
       </c>
       <c r="J100" s="21" t="n">
-        <v>87353.5085</v>
+        <v>90192.68966999999</v>
       </c>
       <c r="K100" s="22" t="n">
         <v>97080.94062000001</v>
       </c>
       <c r="L100" s="22" t="n">
-        <v>120285.19783</v>
+        <v>120320.24522</v>
       </c>
       <c r="M100" s="22" t="n">
-        <v>137726.17681</v>
-      </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+        <v>137784.55393</v>
+      </c>
+      <c r="N100" s="22" t="n">
+        <v>107372.057</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>0.01222</v>
@@ -5349,12 +5279,17 @@
       <c r="M101" s="22" t="n">
         <v>10.89463</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>2010.895</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
         <v>171.18963</v>
@@ -5384,17 +5319,22 @@
         <v>11820.91139</v>
       </c>
       <c r="L102" s="22" t="n">
-        <v>20422.60977</v>
+        <v>20439.11855</v>
       </c>
       <c r="M102" s="22" t="n">
-        <v>25126.9084</v>
-      </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+        <v>25149.24144</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>25243.237</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>1321.24525</v>
@@ -5427,14 +5367,19 @@
         <v>3841.15472</v>
       </c>
       <c r="M103" s="22" t="n">
-        <v>8005.27663</v>
-      </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+        <v>8069.04016</v>
+      </c>
+      <c r="N103" s="22" t="n">
+        <v>16152.232</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
         <v>39885.58708999999</v>
@@ -5449,7 +5394,7 @@
         <v>22568.21421</v>
       </c>
       <c r="G104" s="22" t="n">
-        <v>43864.06243</v>
+        <v>43864.06242999999</v>
       </c>
       <c r="H104" s="21" t="n">
         <v>46540.27867</v>
@@ -5458,23 +5403,28 @@
         <v>50986.66642</v>
       </c>
       <c r="J104" s="21" t="n">
-        <v>51232.71955</v>
+        <v>55381.50042999999</v>
       </c>
       <c r="K104" s="22" t="n">
         <v>35507.02189</v>
       </c>
       <c r="L104" s="22" t="n">
-        <v>42539.38707</v>
+        <v>42650.73511</v>
       </c>
       <c r="M104" s="22" t="n">
-        <v>44897.48288</v>
-      </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+        <v>45131.64353</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>55182.505</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
         <v>5235.57608</v>
@@ -5495,7 +5445,7 @@
         <v>11860.25598</v>
       </c>
       <c r="I105" s="22" t="n">
-        <v>13666.6027</v>
+        <v>13953.80898</v>
       </c>
       <c r="J105" s="21" t="n">
         <v>16425.01294</v>
@@ -5504,26 +5454,31 @@
         <v>19669.76249</v>
       </c>
       <c r="L105" s="22" t="n">
-        <v>28916.49034</v>
+        <v>28952.06658999999</v>
       </c>
       <c r="M105" s="22" t="n">
-        <v>33877.29652</v>
-      </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+        <v>33889.40189</v>
+      </c>
+      <c r="N105" s="22" t="n">
+        <v>36478.747</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
         <v>46482.03432</v>
       </c>
       <c r="D106" s="22" t="n">
-        <v>52682.59036000001</v>
+        <v>52682.59036</v>
       </c>
       <c r="E106" s="22" t="n">
-        <v>47358.86495999999</v>
+        <v>47358.86496</v>
       </c>
       <c r="F106" s="21" t="n">
         <v>29707.32725</v>
@@ -5532,29 +5487,34 @@
         <v>51138.66758</v>
       </c>
       <c r="H106" s="21" t="n">
-        <v>56651.34467000001</v>
+        <v>56651.34467</v>
       </c>
       <c r="I106" s="22" t="n">
-        <v>62730.20518</v>
+        <v>63059.52991</v>
       </c>
       <c r="J106" s="21" t="n">
-        <v>75223.93193999999</v>
+        <v>78633.56345</v>
       </c>
       <c r="K106" s="22" t="n">
-        <v>71727.24371000001</v>
+        <v>71727.24371</v>
       </c>
       <c r="L106" s="22" t="n">
-        <v>87897.1136</v>
+        <v>87954.40595</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>101268.39722</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>101331.77125</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>101018.944</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>0</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>739.56472</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>8.022</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>12.57951</v>
@@ -5629,12 +5594,17 @@
       <c r="M108" s="23" t="n">
         <v>2.25</v>
       </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+      <c r="N108" s="23" t="n">
+        <v>102.25</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>0</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>100</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>15.20088</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>2.25</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>3.04018</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>0.41881</v>
@@ -5829,12 +5819,17 @@
       <c r="M113" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
         <v>8312.98731</v>
@@ -5843,41 +5838,46 @@
         <v>5883.832060000001</v>
       </c>
       <c r="E114" s="23" t="n">
-        <v>6586.75756</v>
+        <v>6586.757560000001</v>
       </c>
       <c r="F114" s="33" t="n">
         <v>7272.022790000001</v>
       </c>
       <c r="G114" s="23" t="n">
-        <v>9553.60637</v>
+        <v>9553.606370000001</v>
       </c>
       <c r="H114" s="33" t="n">
         <v>10409.31345</v>
       </c>
       <c r="I114" s="23" t="n">
-        <v>14884.75941</v>
+        <v>14927.85519</v>
       </c>
       <c r="J114" s="33" t="n">
-        <v>16403.25445</v>
+        <v>18799.12663</v>
       </c>
       <c r="K114" s="23" t="n">
         <v>21088.08456</v>
       </c>
       <c r="L114" s="23" t="n">
-        <v>26223.71712</v>
+        <v>26875.10795</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>30677.07323</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>31129.3879</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>33785.596</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
-        <v>8311.113620000002</v>
+        <v>8311.11362</v>
       </c>
       <c r="D115" s="22" t="n">
         <v>5882.5223</v>
@@ -5889,32 +5889,37 @@
         <v>7269.23774</v>
       </c>
       <c r="G115" s="22" t="n">
-        <v>9550.466849999999</v>
+        <v>9550.466850000001</v>
       </c>
       <c r="H115" s="21" t="n">
         <v>10406.14952</v>
       </c>
       <c r="I115" s="22" t="n">
-        <v>14873.17729</v>
+        <v>14916.27307</v>
       </c>
       <c r="J115" s="21" t="n">
-        <v>16395.23595</v>
+        <v>18791.10813</v>
       </c>
       <c r="K115" s="22" t="n">
         <v>21072.10347</v>
       </c>
       <c r="L115" s="22" t="n">
-        <v>26223.71712</v>
+        <v>26875.10795</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>30676.6549</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>31128.96957</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>33785.178</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>1.87369</v>
@@ -5949,18 +5954,23 @@
       <c r="M116" s="22" t="n">
         <v>0.41833</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>49.56808</v>
       </c>
       <c r="D117" s="23" t="n">
-        <v>64.07096</v>
+        <v>64.07095999999999</v>
       </c>
       <c r="E117" s="23" t="n">
         <v>105.90635</v>
@@ -5984,17 +5994,22 @@
         <v>10021.4374</v>
       </c>
       <c r="L117" s="23" t="n">
-        <v>21086.94328</v>
+        <v>21107.17706</v>
       </c>
       <c r="M117" s="23" t="n">
-        <v>18240.71567</v>
-      </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+        <v>19760.72297</v>
+      </c>
+      <c r="N117" s="23" t="n">
+        <v>19097.442</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>17.92761</v>
@@ -6029,12 +6044,17 @@
       <c r="M118" s="22" t="n">
         <v>882.06673</v>
       </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+      <c r="N118" s="22" t="n">
+        <v>31.649</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>0</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>3.2243</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>3.243</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>16.31602</v>
@@ -6149,12 +6179,17 @@
       <c r="M121" s="22" t="n">
         <v>17.798</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>117.798</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>29.67055</v>
@@ -6184,17 +6219,22 @@
         <v>178.33155</v>
       </c>
       <c r="L122" s="22" t="n">
-        <v>210.42875</v>
+        <v>210.65523</v>
       </c>
       <c r="M122" s="22" t="n">
         <v>48.17197</v>
       </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+      <c r="N122" s="22" t="n">
+        <v>38.128</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>1.96992</v>
@@ -6218,23 +6258,28 @@
         <v>0.0073</v>
       </c>
       <c r="J123" s="21" t="n">
-        <v>936.5169700000001</v>
+        <v>936.51697</v>
       </c>
       <c r="K123" s="22" t="n">
         <v>1472.21887</v>
       </c>
       <c r="L123" s="22" t="n">
-        <v>868.68796</v>
+        <v>868.69526</v>
       </c>
       <c r="M123" s="22" t="n">
-        <v>788.7221099999999</v>
-      </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+        <v>788.72941</v>
+      </c>
+      <c r="N123" s="22" t="n">
+        <v>422.967</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>16.31602</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>11.12376</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>11.124</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6344,17 +6399,22 @@
         <v>8339.84447</v>
       </c>
       <c r="L126" s="22" t="n">
-        <v>19969.61483</v>
+        <v>19989.61483</v>
       </c>
       <c r="M126" s="22" t="n">
-        <v>16511.85632</v>
-      </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+        <v>18031.85632</v>
+      </c>
+      <c r="N126" s="22" t="n">
+        <v>18494.781</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
         <v>1137862.57019</v>
@@ -6372,26 +6432,29 @@
         <v>1746304.72463</v>
       </c>
       <c r="H127" s="33" t="n">
-        <v>2148682.87781</v>
+        <v>2148686.30809</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>2548918.27365</v>
+        <v>2578843.23452</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>2607085.32687</v>
+        <v>2858842.21127</v>
       </c>
       <c r="K127" s="23" t="n">
         <v>3247414.10959</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>3839786.19265</v>
+        <v>3877498.67117</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>4242763.87894</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>4331054.79823</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>6114926.741</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>329-Manufacturing n.e.c.</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,21 +6553,26 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
         <v>452708.66103</v>
       </c>
       <c r="D132" s="23" t="n">
-        <v>545280.3496600001</v>
+        <v>545280.3496599999</v>
       </c>
       <c r="E132" s="23" t="n">
-        <v>599306.91342</v>
+        <v>599306.9134200001</v>
       </c>
       <c r="F132" s="33" t="n">
         <v>702625.1485</v>
@@ -6507,26 +6584,31 @@
         <v>927941.51391</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>1152544.92422</v>
+        <v>1160869.4569</v>
       </c>
       <c r="J132" s="33" t="n">
-        <v>1207822.50267</v>
+        <v>1236915.06076</v>
       </c>
       <c r="K132" s="23" t="n">
         <v>1433291.3012</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>1791265.22764</v>
+        <v>1822413.19308</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>1911769.6573</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>1969556.31788</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>2845767.432</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>105345.18247</v>
@@ -6547,26 +6629,31 @@
         <v>279792.29065</v>
       </c>
       <c r="I133" s="23" t="n">
-        <v>381642.97443</v>
+        <v>383169.29779</v>
       </c>
       <c r="J133" s="33" t="n">
-        <v>378723.96722</v>
+        <v>378718.97137</v>
       </c>
       <c r="K133" s="23" t="n">
         <v>425795.44703</v>
       </c>
       <c r="L133" s="23" t="n">
-        <v>569885.0824600001</v>
+        <v>570292.8654000001</v>
       </c>
       <c r="M133" s="23" t="n">
-        <v>474211.98707</v>
-      </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+        <v>484052.78003</v>
+      </c>
+      <c r="N133" s="23" t="n">
+        <v>791782.878</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>103162.21995</v>
@@ -6587,26 +6674,31 @@
         <v>267971.25649</v>
       </c>
       <c r="I134" s="22" t="n">
-        <v>363875.57587</v>
+        <v>365401.89923</v>
       </c>
       <c r="J134" s="21" t="n">
-        <v>354822.98721</v>
+        <v>354817.9913599999</v>
       </c>
       <c r="K134" s="22" t="n">
         <v>392583.3295</v>
       </c>
       <c r="L134" s="22" t="n">
-        <v>529267.1719500001</v>
+        <v>529668.3351800001</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>414976.89491</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>424769.59636</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>722152.393</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>1653.89014</v>
@@ -6641,24 +6733,29 @@
       <c r="M135" s="22" t="n">
         <v>25378.55333</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>26914.953</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>163.04823</v>
       </c>
       <c r="D136" s="22" t="n">
-        <v>90.99787000000001</v>
+        <v>90.99786999999999</v>
       </c>
       <c r="E136" s="22" t="n">
         <v>223.74718</v>
       </c>
       <c r="F136" s="21" t="n">
-        <v>717.8660500000001</v>
+        <v>717.86605</v>
       </c>
       <c r="G136" s="22" t="n">
         <v>421.3099100000001</v>
@@ -6681,12 +6778,17 @@
       <c r="M136" s="22" t="n">
         <v>501.86281</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>484.058</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>591.95899</v>
@@ -6695,7 +6797,7 @@
         <v>1526.77799</v>
       </c>
       <c r="E137" s="22" t="n">
-        <v>842.0981599999999</v>
+        <v>842.09816</v>
       </c>
       <c r="F137" s="21" t="n">
         <v>1901.6806</v>
@@ -6721,12 +6823,17 @@
       <c r="M137" s="22" t="n">
         <v>31185.49676</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>36372.787</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>100.16162</v>
@@ -6904,7 +7031,7 @@
         <v>521.76423</v>
       </c>
       <c r="H142" s="21" t="n">
-        <v>827.8348000000001</v>
+        <v>827.8348</v>
       </c>
       <c r="I142" s="22" t="n">
         <v>729.3864699999999</v>
@@ -6916,17 +7043,22 @@
         <v>1727.96497</v>
       </c>
       <c r="L142" s="22" t="n">
-        <v>2116.07063</v>
+        <v>2122.69034</v>
       </c>
       <c r="M142" s="22" t="n">
-        <v>3172.90488</v>
-      </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+        <v>3220.99639</v>
+      </c>
+      <c r="N142" s="22" t="n">
+        <v>6826.803</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
         <v>170988.8987</v>
@@ -6947,26 +7079,31 @@
         <v>325832.32205</v>
       </c>
       <c r="I143" s="46" t="n">
-        <v>398394.33759</v>
+        <v>401001.10237</v>
       </c>
       <c r="J143" s="45" t="n">
-        <v>414857.1701</v>
+        <v>428607.81463</v>
       </c>
       <c r="K143" s="46" t="n">
         <v>509150.83152</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>609426.90929</v>
+        <v>623774.63954</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>747454.52753</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>764392.04339</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>1011258.864</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
         <v>124355.12838</v>
@@ -6987,26 +7124,31 @@
         <v>238760.54445</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>291024.02446</v>
+        <v>292665.85565</v>
       </c>
       <c r="J144" s="24" t="n">
-        <v>282476.75776</v>
+        <v>296227.40229</v>
       </c>
       <c r="K144" s="25" t="n">
         <v>367063.79287</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>417739.41153</v>
+        <v>430552.86146</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>535696.80541</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>552013.80437</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>758513.027</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
         <v>39714.5594</v>
@@ -7015,7 +7157,7 @@
         <v>65556.49728</v>
       </c>
       <c r="E145" s="25" t="n">
-        <v>70324.33085</v>
+        <v>70324.33085000001</v>
       </c>
       <c r="F145" s="24" t="n">
         <v>78007.37992000001</v>
@@ -7027,7 +7169,7 @@
         <v>78279.44824</v>
       </c>
       <c r="I145" s="25" t="n">
-        <v>93498.23091</v>
+        <v>94396.39852</v>
       </c>
       <c r="J145" s="24" t="n">
         <v>118038.65723</v>
@@ -7036,17 +7178,22 @@
         <v>130756.14358</v>
       </c>
       <c r="L145" s="25" t="n">
-        <v>170066.67133</v>
+        <v>171420.38927</v>
       </c>
       <c r="M145" s="25" t="n">
-        <v>184114.15858</v>
-      </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+        <v>184477.95269</v>
+      </c>
+      <c r="N145" s="25" t="n">
+        <v>207478.581</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>0</v>
@@ -7081,12 +7228,17 @@
       <c r="M146" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>83.398</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>191.95458</v>
@@ -7107,7 +7259,7 @@
         <v>161.47738</v>
       </c>
       <c r="I147" s="25" t="n">
-        <v>53.0861</v>
+        <v>59.17738</v>
       </c>
       <c r="J147" s="24" t="n">
         <v>116.87485</v>
@@ -7119,26 +7271,31 @@
         <v>219.73088</v>
       </c>
       <c r="M147" s="25" t="n">
-        <v>192.57556</v>
-      </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+        <v>202.59745</v>
+      </c>
+      <c r="N147" s="25" t="n">
+        <v>350.396</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
         <v>6727.25634</v>
       </c>
       <c r="D148" s="25" t="n">
-        <v>8037.38693</v>
+        <v>8037.386930000001</v>
       </c>
       <c r="E148" s="25" t="n">
         <v>8215.794910000001</v>
       </c>
       <c r="F148" s="24" t="n">
-        <v>8182.209959999999</v>
+        <v>8182.20996</v>
       </c>
       <c r="G148" s="25" t="n">
         <v>5812.195729999999</v>
@@ -7147,7 +7304,7 @@
         <v>8630.851980000001</v>
       </c>
       <c r="I148" s="25" t="n">
-        <v>13818.99612</v>
+        <v>13879.67082</v>
       </c>
       <c r="J148" s="24" t="n">
         <v>14224.88026</v>
@@ -7156,17 +7313,22 @@
         <v>11122.15151</v>
       </c>
       <c r="L148" s="25" t="n">
-        <v>21437.35708</v>
+        <v>21617.91946</v>
       </c>
       <c r="M148" s="25" t="n">
-        <v>27450.98798</v>
-      </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+        <v>27697.68888</v>
+      </c>
+      <c r="N148" s="25" t="n">
+        <v>45000.258</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
         <v>107540.80896</v>
@@ -7187,26 +7349,31 @@
         <v>177622.08252</v>
       </c>
       <c r="I149" s="23" t="n">
-        <v>201814.10431</v>
+        <v>204627.95613</v>
       </c>
       <c r="J149" s="33" t="n">
-        <v>234949.57987</v>
+        <v>237961.15725</v>
       </c>
       <c r="K149" s="23" t="n">
         <v>250747.48601</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>330724.47393</v>
+        <v>339613.72156</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>375138.33958</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>386163.87075</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>493322.469</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>96557.14886000002</v>
@@ -7227,26 +7394,31 @@
         <v>143795.61566</v>
       </c>
       <c r="I150" s="22" t="n">
-        <v>165445.62577</v>
+        <v>167936.81987</v>
       </c>
       <c r="J150" s="21" t="n">
-        <v>195728.86389</v>
+        <v>196136.36389</v>
       </c>
       <c r="K150" s="22" t="n">
         <v>213061.96537</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>256862.6617</v>
+        <v>261746.46848</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>303021.5505</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>313190.01828</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>405127.481</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>23.22823</v>
@@ -7276,17 +7448,22 @@
         <v>2762.71742</v>
       </c>
       <c r="L151" s="22" t="n">
-        <v>5227.54741</v>
+        <v>5237.11206</v>
       </c>
       <c r="M151" s="22" t="n">
         <v>5927.546480000001</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>10297.503</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>0.5806</v>
@@ -7321,24 +7498,29 @@
       <c r="M152" s="22" t="n">
         <v>1980.1757</v>
       </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+      <c r="N152" s="22" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
-        <v>4016.9065</v>
+        <v>4016.906500000001</v>
       </c>
       <c r="D153" s="22" t="n">
-        <v>5843.666630000001</v>
+        <v>5843.66663</v>
       </c>
       <c r="E153" s="22" t="n">
-        <v>8048.229790000001</v>
+        <v>8048.22979</v>
       </c>
       <c r="F153" s="21" t="n">
-        <v>8682.114009999999</v>
+        <v>8682.114010000001</v>
       </c>
       <c r="G153" s="22" t="n">
         <v>8538.642820000001</v>
@@ -7347,26 +7529,31 @@
         <v>10550.9827</v>
       </c>
       <c r="I153" s="22" t="n">
-        <v>11356.10702</v>
+        <v>11587.774</v>
       </c>
       <c r="J153" s="21" t="n">
-        <v>12181.27072</v>
+        <v>14785.3481</v>
       </c>
       <c r="K153" s="22" t="n">
         <v>18992.60179</v>
       </c>
       <c r="L153" s="22" t="n">
-        <v>25310.26136</v>
+        <v>25420.14863</v>
       </c>
       <c r="M153" s="22" t="n">
-        <v>30172.34003</v>
-      </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+        <v>30599.8834</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>34143.125</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>6942.94477</v>
@@ -7387,7 +7574,7 @@
         <v>23217.04284</v>
       </c>
       <c r="I154" s="22" t="n">
-        <v>24754.09699</v>
+        <v>24845.08773</v>
       </c>
       <c r="J154" s="21" t="n">
         <v>26723.64631</v>
@@ -7396,17 +7583,22 @@
         <v>15930.08011</v>
       </c>
       <c r="L154" s="22" t="n">
-        <v>42442.57714</v>
+        <v>46328.56607</v>
       </c>
       <c r="M154" s="22" t="n">
-        <v>34037.49536</v>
-      </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+        <v>34467.01538</v>
+      </c>
+      <c r="N154" s="22" t="n">
+        <v>43754.239</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,12 +7633,17 @@
       <c r="M155" s="22" t="n">
         <v>0.76849</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
         <v>31223.58255</v>
@@ -7467,26 +7664,31 @@
         <v>79993.24206</v>
       </c>
       <c r="I156" s="23" t="n">
-        <v>97484.86391</v>
+        <v>98408.58576999999</v>
       </c>
       <c r="J156" s="33" t="n">
-        <v>101540.2094</v>
+        <v>101968.24419</v>
       </c>
       <c r="K156" s="23" t="n">
         <v>153748.3425</v>
       </c>
       <c r="L156" s="23" t="n">
-        <v>167048.20903</v>
+        <v>171591.60474</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>174208.38878</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>191097.61678</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>338529.873</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
         <v>31114.11037</v>
@@ -7495,7 +7697,7 @@
         <v>32059.76553</v>
       </c>
       <c r="E157" s="22" t="n">
-        <v>40946.82791000001</v>
+        <v>40946.82791</v>
       </c>
       <c r="F157" s="21" t="n">
         <v>74354.69039</v>
@@ -7507,26 +7709,31 @@
         <v>77501.32044</v>
       </c>
       <c r="I157" s="22" t="n">
-        <v>94932.59771</v>
+        <v>95856.31956999999</v>
       </c>
       <c r="J157" s="21" t="n">
-        <v>96529.88528</v>
+        <v>96957.92006999999</v>
       </c>
       <c r="K157" s="22" t="n">
         <v>147240.30226</v>
       </c>
       <c r="L157" s="22" t="n">
-        <v>161271.07449</v>
+        <v>165439.4702</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>173035.32898</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>185698.66155</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>333352.584</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>109.47218</v>
@@ -7556,17 +7763,22 @@
         <v>6508.04024</v>
       </c>
       <c r="L158" s="22" t="n">
-        <v>5777.13454</v>
+        <v>6152.134540000001</v>
       </c>
       <c r="M158" s="22" t="n">
-        <v>1173.0598</v>
-      </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+        <v>5398.95523</v>
+      </c>
+      <c r="N158" s="22" t="n">
+        <v>5177.289</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>0.43633</v>
@@ -7601,12 +7813,17 @@
       <c r="M159" s="23" t="n">
         <v>1.935</v>
       </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+      <c r="N159" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>0.43633</v>
@@ -7641,12 +7858,17 @@
       <c r="M160" s="22" t="n">
         <v>1.935</v>
       </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+      <c r="N160" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,12 +7903,17 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
         <v>27824.80963</v>
@@ -7707,26 +7934,31 @@
         <v>40185.39631</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>46425.48435</v>
+        <v>46853.82255</v>
       </c>
       <c r="J162" s="33" t="n">
-        <v>64938.71661</v>
+        <v>66827.01113</v>
       </c>
       <c r="K162" s="23" t="n">
-        <v>66009.21785000002</v>
+        <v>66009.21785</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>75581.32773</v>
+        <v>78503.88572999999</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>91503.11150999999</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>94056.26345</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>130343.658</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
         <v>11923.49635</v>
@@ -7747,26 +7979,31 @@
         <v>20437.67645</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>24036.89836</v>
+        <v>24354.21401</v>
       </c>
       <c r="J163" s="21" t="n">
-        <v>27983.0804</v>
+        <v>28908.87487</v>
       </c>
       <c r="K163" s="22" t="n">
         <v>29206.92537</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>32584.96307000001</v>
+        <v>33495.71199</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>36018.66003</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>37396.72229</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>67040.5</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
         <v>6812.788970000001</v>
@@ -7781,38 +8018,43 @@
         <v>11134.06038</v>
       </c>
       <c r="G164" s="22" t="n">
-        <v>9998.008989999998</v>
+        <v>9998.00899</v>
       </c>
       <c r="H164" s="21" t="n">
         <v>9464.857300000001</v>
       </c>
       <c r="I164" s="22" t="n">
-        <v>10569.62801</v>
+        <v>10680.65056</v>
       </c>
       <c r="J164" s="21" t="n">
-        <v>13620.71743</v>
+        <v>14583.16758</v>
       </c>
       <c r="K164" s="22" t="n">
         <v>17940.66621</v>
       </c>
       <c r="L164" s="22" t="n">
-        <v>19455.88052</v>
+        <v>19928.15714</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>28165.03605</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>28715.61283</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>25909.056</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>9038.76719</v>
       </c>
       <c r="D165" s="22" t="n">
-        <v>9432.076429999999</v>
+        <v>9432.076430000001</v>
       </c>
       <c r="E165" s="22" t="n">
         <v>9784.944120000002</v>
@@ -7821,7 +8063,7 @@
         <v>9918.053250000001</v>
       </c>
       <c r="G165" s="22" t="n">
-        <v>6944.18787</v>
+        <v>6944.187869999999</v>
       </c>
       <c r="H165" s="21" t="n">
         <v>10213.37206</v>
@@ -7830,26 +8072,31 @@
         <v>11755.77664</v>
       </c>
       <c r="J165" s="21" t="n">
-        <v>23158.96394</v>
+        <v>23159.01384</v>
       </c>
       <c r="K165" s="22" t="n">
         <v>18698.51617</v>
       </c>
       <c r="L165" s="22" t="n">
-        <v>23207.53572</v>
+        <v>24747.06818</v>
       </c>
       <c r="M165" s="22" t="n">
-        <v>26614.74888</v>
-      </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+        <v>27238.26678</v>
+      </c>
+      <c r="N165" s="22" t="n">
+        <v>36828.82</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
-        <v>49.75711999999999</v>
+        <v>49.75712</v>
       </c>
       <c r="D166" s="22" t="n">
         <v>141.34913</v>
@@ -7879,23 +8126,28 @@
         <v>332.94842</v>
       </c>
       <c r="M166" s="22" t="n">
-        <v>704.66655</v>
-      </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+        <v>705.6615499999999</v>
+      </c>
+      <c r="N166" s="22" t="n">
+        <v>565.282</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
-        <v>7360.55315</v>
+        <v>7360.553150000001</v>
       </c>
       <c r="D167" s="23" t="n">
         <v>3223.32941</v>
       </c>
       <c r="E167" s="23" t="n">
-        <v>9526.475639999999</v>
+        <v>9526.475640000001</v>
       </c>
       <c r="F167" s="33" t="n">
         <v>10458.50933</v>
@@ -7907,26 +8159,31 @@
         <v>18113.89416</v>
       </c>
       <c r="I167" s="23" t="n">
-        <v>21201.1536</v>
+        <v>21226.68626</v>
       </c>
       <c r="J167" s="33" t="n">
-        <v>6712.85034</v>
+        <v>16731.85306</v>
       </c>
       <c r="K167" s="23" t="n">
         <v>15963.61193</v>
       </c>
       <c r="L167" s="23" t="n">
-        <v>26907.43865</v>
+        <v>26943.44439</v>
       </c>
       <c r="M167" s="23" t="n">
-        <v>33931.77399</v>
-      </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+        <v>34443.66545</v>
+      </c>
+      <c r="N167" s="23" t="n">
+        <v>66276.889</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
         <v>15118.5118</v>
@@ -7947,32 +8204,37 @@
         <v>31742.10637</v>
       </c>
       <c r="I168" s="22" t="n">
-        <v>34794.78685</v>
+        <v>35014.40609</v>
       </c>
       <c r="J168" s="21" t="n">
-        <v>22541.71705</v>
+        <v>32560.71977</v>
       </c>
       <c r="K168" s="22" t="n">
         <v>36926.56396</v>
       </c>
       <c r="L168" s="22" t="n">
-        <v>46960.45466999999</v>
+        <v>46962.39478</v>
       </c>
       <c r="M168" s="22" t="n">
-        <v>54290.81607999999</v>
-      </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+        <v>54958.5556</v>
+      </c>
+      <c r="N168" s="22" t="n">
+        <v>148563.142</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
         <v>8566.298490000001</v>
       </c>
       <c r="D169" s="22" t="n">
-        <v>9818.169459999999</v>
+        <v>9818.169460000001</v>
       </c>
       <c r="E169" s="22" t="n">
         <v>13042.66679</v>
@@ -7987,7 +8249,7 @@
         <v>18677.2761</v>
       </c>
       <c r="I169" s="22" t="n">
-        <v>19798.55918</v>
+        <v>19992.64576</v>
       </c>
       <c r="J169" s="21" t="n">
         <v>17894.75041</v>
@@ -7996,17 +8258,22 @@
         <v>21994.62749</v>
       </c>
       <c r="L169" s="22" t="n">
-        <v>29755.47565</v>
+        <v>29721.41002</v>
       </c>
       <c r="M169" s="22" t="n">
-        <v>27496.68794</v>
-      </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+        <v>27652.536</v>
+      </c>
+      <c r="N169" s="22" t="n">
+        <v>99013.974</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>0.01319</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>2969.99114</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>21.192</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>400.17768</v>
@@ -8067,7 +8339,7 @@
         <v>167.124</v>
       </c>
       <c r="I171" s="22" t="n">
-        <v>4938.136910000001</v>
+        <v>4938.13691</v>
       </c>
       <c r="J171" s="21" t="n">
         <v>1845.44948</v>
@@ -8081,12 +8353,17 @@
       <c r="M171" s="22" t="n">
         <v>3795.75724</v>
       </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+      <c r="N171" s="22" t="n">
+        <v>14808.031</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>408.14897</v>
@@ -8121,12 +8398,17 @@
       <c r="M172" s="22" t="n">
         <v>371.89747</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>1898.498</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
         <v>1967.81423</v>
@@ -8156,17 +8438,22 @@
         <v>7844.80135</v>
       </c>
       <c r="L173" s="23" t="n">
-        <v>10225.7915</v>
+        <v>10227.02981</v>
       </c>
       <c r="M173" s="23" t="n">
-        <v>12984.65947</v>
-      </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+        <v>12995.09487</v>
+      </c>
+      <c r="N173" s="23" t="n">
+        <v>11597.121</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
         <v>401.3075</v>
@@ -8201,12 +8488,17 @@
       <c r="M174" s="22" t="n">
         <v>5553.44931</v>
       </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+      <c r="N174" s="22" t="n">
+        <v>4111.292</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>1566.50673</v>
@@ -8224,10 +8516,10 @@
         <v>3183.13781</v>
       </c>
       <c r="H175" s="21" t="n">
-        <v>4284.644659999999</v>
+        <v>4284.64466</v>
       </c>
       <c r="I175" s="22" t="n">
-        <v>3432.46194</v>
+        <v>3432.461940000001</v>
       </c>
       <c r="J175" s="21" t="n">
         <v>3629.0172</v>
@@ -8236,17 +8528,22 @@
         <v>5242.382009999999</v>
       </c>
       <c r="L175" s="22" t="n">
-        <v>6785.37993</v>
+        <v>6786.618239999999</v>
       </c>
       <c r="M175" s="22" t="n">
-        <v>7431.210160000001</v>
-      </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+        <v>7441.645560000001</v>
+      </c>
+      <c r="N175" s="22" t="n">
+        <v>7485.829</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>456.57501</v>
@@ -8258,10 +8555,10 @@
         <v>291.95146</v>
       </c>
       <c r="F176" s="33" t="n">
-        <v>474.35147</v>
+        <v>474.3514699999999</v>
       </c>
       <c r="G176" s="23" t="n">
-        <v>856.3646399999999</v>
+        <v>856.36464</v>
       </c>
       <c r="H176" s="33" t="n">
         <v>1538.43177</v>
@@ -8273,20 +8570,25 @@
         <v>1754.77392</v>
       </c>
       <c r="K176" s="23" t="n">
-        <v>3647.430769999999</v>
+        <v>3647.43077</v>
       </c>
       <c r="L176" s="23" t="n">
-        <v>1465.99505</v>
+        <v>1466.00191</v>
       </c>
       <c r="M176" s="23" t="n">
-        <v>2334.93437</v>
-      </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+        <v>2353.04816</v>
+      </c>
+      <c r="N176" s="23" t="n">
+        <v>2655.68</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>281.1111</v>
@@ -8316,17 +8618,22 @@
         <v>218.28721</v>
       </c>
       <c r="L177" s="22" t="n">
-        <v>327.23314</v>
+        <v>327.24</v>
       </c>
       <c r="M177" s="22" t="n">
-        <v>430.25539</v>
-      </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+        <v>452.57936</v>
+      </c>
+      <c r="N177" s="22" t="n">
+        <v>452.572</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>171.2435</v>
@@ -8359,14 +8666,19 @@
         <v>806.2914</v>
       </c>
       <c r="M178" s="22" t="n">
-        <v>1206.96067</v>
-      </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+        <v>1210.78867</v>
+      </c>
+      <c r="N178" s="22" t="n">
+        <v>1259.651</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>0</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>363.43287</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>473.099</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>4.22041</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>14.11569</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>9.984</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>0</v>
@@ -8479,14 +8801,19 @@
         <v>45.29633</v>
       </c>
       <c r="M181" s="35" t="n">
-        <v>320.16975</v>
-      </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+        <v>312.13157</v>
+      </c>
+      <c r="N181" s="35" t="n">
+        <v>460.374</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
         <v>96893.53585</v>
@@ -8507,26 +8834,31 @@
         <v>246034.19046</v>
       </c>
       <c r="I182" s="23" t="n">
-        <v>283800.74872</v>
+        <v>287203.96022</v>
       </c>
       <c r="J182" s="33" t="n">
-        <v>325061.94151</v>
+        <v>327098.95236</v>
       </c>
       <c r="K182" s="23" t="n">
         <v>400832.55428</v>
       </c>
       <c r="L182" s="23" t="n">
-        <v>422335.28299</v>
+        <v>423029.42157</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>534804.829</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>547893.11858</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>713372.247</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
         <v>59131.5389</v>
@@ -8535,7 +8867,7 @@
         <v>87754.14439</v>
       </c>
       <c r="E183" s="23" t="n">
-        <v>99494.29747999999</v>
+        <v>99494.29748000001</v>
       </c>
       <c r="F183" s="33" t="n">
         <v>106056.42261</v>
@@ -8547,7 +8879,7 @@
         <v>158496.18268</v>
       </c>
       <c r="I183" s="23" t="n">
-        <v>184440.54293</v>
+        <v>187843.75443</v>
       </c>
       <c r="J183" s="33" t="n">
         <v>198973.54087</v>
@@ -8556,23 +8888,28 @@
         <v>283978.78648</v>
       </c>
       <c r="L183" s="23" t="n">
-        <v>277161.73675</v>
+        <v>277275.58661</v>
       </c>
       <c r="M183" s="23" t="n">
-        <v>345735.9034199999</v>
-      </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+        <v>354064.10752</v>
+      </c>
+      <c r="N183" s="23" t="n">
+        <v>457388.066</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>52121.05675</v>
       </c>
       <c r="D184" s="22" t="n">
-        <v>81789.83779999999</v>
+        <v>81789.83780000001</v>
       </c>
       <c r="E184" s="22" t="n">
         <v>96226.20075</v>
@@ -8587,7 +8924,7 @@
         <v>153573.85479</v>
       </c>
       <c r="I184" s="22" t="n">
-        <v>175547.64472</v>
+        <v>178950.85622</v>
       </c>
       <c r="J184" s="21" t="n">
         <v>169501.70488</v>
@@ -8596,17 +8933,22 @@
         <v>262469.25481</v>
       </c>
       <c r="L184" s="22" t="n">
-        <v>252680.7211</v>
+        <v>252794.57096</v>
       </c>
       <c r="M184" s="22" t="n">
-        <v>333918.16541</v>
-      </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+        <v>342246.36951</v>
+      </c>
+      <c r="N184" s="22" t="n">
+        <v>447828.608</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>7722.762390000001</v>
@@ -8621,7 +8963,7 @@
         <v>7602.45757</v>
       </c>
       <c r="G185" s="22" t="n">
-        <v>6749.03047</v>
+        <v>6749.030470000001</v>
       </c>
       <c r="H185" s="21" t="n">
         <v>5990.26427</v>
@@ -8636,17 +8978,22 @@
         <v>23859.13249</v>
       </c>
       <c r="L185" s="22" t="n">
-        <v>26906.19533999999</v>
+        <v>26906.19534</v>
       </c>
       <c r="M185" s="22" t="n">
         <v>12721.7087</v>
       </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+      <c r="N185" s="22" t="n">
+        <v>10764.943</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>779.25806</v>
@@ -8670,7 +9017,7 @@
         <v>1767.33424</v>
       </c>
       <c r="J186" s="21" t="n">
-        <v>4737.456359999999</v>
+        <v>4737.45636</v>
       </c>
       <c r="K186" s="22" t="n">
         <v>2349.60082</v>
@@ -8681,12 +9028,17 @@
       <c r="M186" s="22" t="n">
         <v>903.97069</v>
       </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="N186" s="22" t="n">
+        <v>1205.485</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>66.97782000000001</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>5766.981900000001</v>
@@ -8876,17 +9248,22 @@
         <v>13885.29937</v>
       </c>
       <c r="L191" s="23" t="n">
-        <v>22045.90321</v>
+        <v>22046.00321</v>
       </c>
       <c r="M191" s="23" t="n">
-        <v>16629.33434</v>
-      </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+        <v>20589.45548</v>
+      </c>
+      <c r="N191" s="23" t="n">
+        <v>23844.51</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>2646.98749</v>
@@ -8916,17 +9293,22 @@
         <v>2009.4469</v>
       </c>
       <c r="L192" s="22" t="n">
-        <v>3485.49732</v>
+        <v>3485.59732</v>
       </c>
       <c r="M192" s="22" t="n">
-        <v>5232.44054</v>
-      </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+        <v>5232.440539999999</v>
+      </c>
+      <c r="N192" s="22" t="n">
+        <v>12333.265</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>3028.34163</v>
@@ -8938,7 +9320,7 @@
         <v>8558.62465</v>
       </c>
       <c r="F193" s="21" t="n">
-        <v>6264.521729999999</v>
+        <v>6264.52173</v>
       </c>
       <c r="G193" s="22" t="n">
         <v>5906.49885</v>
@@ -8959,14 +9341,19 @@
         <v>15333.40589</v>
       </c>
       <c r="M193" s="22" t="n">
-        <v>8352.1988</v>
-      </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+        <v>9090.319940000001</v>
+      </c>
+      <c r="N193" s="22" t="n">
+        <v>7674.477</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>30.114</v>
@@ -9039,14 +9431,19 @@
         <v>17</v>
       </c>
       <c r="M195" s="22" t="n">
+        <v>107</v>
+      </c>
+      <c r="N195" s="22" t="n">
         <v>95</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>61.53878</v>
@@ -9079,14 +9476,19 @@
         <v>3210</v>
       </c>
       <c r="M196" s="22" t="n">
-        <v>2949.695</v>
-      </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+        <v>6159.695</v>
+      </c>
+      <c r="N196" s="22" t="n">
+        <v>3741.768</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
         <v>27054.71582</v>
@@ -9098,13 +9500,13 @@
         <v>51781.96972</v>
       </c>
       <c r="F197" s="33" t="n">
-        <v>48549.85599</v>
+        <v>48549.85599000001</v>
       </c>
       <c r="G197" s="23" t="n">
         <v>51524.91281</v>
       </c>
       <c r="H197" s="33" t="n">
-        <v>69706.39006999999</v>
+        <v>69706.39007000001</v>
       </c>
       <c r="I197" s="23" t="n">
         <v>69836.49622</v>
@@ -9116,20 +9518,25 @@
         <v>86314.93732</v>
       </c>
       <c r="L197" s="23" t="n">
-        <v>106163.4194</v>
+        <v>106701.30621</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>150268.53791</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>151033.52664</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>203957.595</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
-        <v>25854.8055</v>
+        <v>25854.80549999999</v>
       </c>
       <c r="D198" s="22" t="n">
         <v>29300.88151</v>
@@ -9156,17 +9563,22 @@
         <v>81819.52686</v>
       </c>
       <c r="L198" s="22" t="n">
-        <v>100548.26353</v>
+        <v>101037.30832</v>
       </c>
       <c r="M198" s="22" t="n">
-        <v>145891.85396</v>
-      </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+        <v>146541.43829</v>
+      </c>
+      <c r="N198" s="22" t="n">
+        <v>184717.007</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>0</v>
@@ -9241,18 +9658,23 @@
       <c r="M200" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>1100.13429</v>
       </c>
       <c r="D201" s="22" t="n">
-        <v>888.30006</v>
+        <v>888.3000599999999</v>
       </c>
       <c r="E201" s="22" t="n">
         <v>5612.06463</v>
@@ -9279,14 +9701,19 @@
         <v>243.79553</v>
       </c>
       <c r="M201" s="22" t="n">
-        <v>624.9885</v>
-      </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+        <v>740.3929000000001</v>
+      </c>
+      <c r="N201" s="22" t="n">
+        <v>4303.552</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>99.77603000000001</v>
@@ -9350,23 +9782,28 @@
         <v>528.92211</v>
       </c>
       <c r="J203" s="21" t="n">
-        <v>5802.46656</v>
+        <v>5802.466560000001</v>
       </c>
       <c r="K203" s="22" t="n">
         <v>4173.82834</v>
       </c>
       <c r="L203" s="22" t="n">
-        <v>5371.36034</v>
+        <v>5420.202359999999</v>
       </c>
       <c r="M203" s="22" t="n">
         <v>3751.69545</v>
       </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+      <c r="N203" s="22" t="n">
+        <v>14937.036</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>36.59069</v>
@@ -9401,12 +9838,17 @@
       <c r="M204" s="23" t="n">
         <v>184.03976</v>
       </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+      <c r="N204" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>36.59069</v>
@@ -9441,12 +9883,17 @@
       <c r="M205" s="22" t="n">
         <v>184.03976</v>
       </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+      <c r="N205" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>0</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>4654.32166</v>
@@ -9521,12 +9973,17 @@
       <c r="M207" s="23" t="n">
         <v>13486.28452</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>19085.67</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>4653.33598</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>13486.28452</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>19085.67</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>0.98568</v>
@@ -9601,12 +10063,17 @@
       <c r="M209" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>245.92628</v>
@@ -9624,29 +10091,34 @@
         <v>551.35681</v>
       </c>
       <c r="H210" s="33" t="n">
-        <v>338.3009499999999</v>
+        <v>338.30095</v>
       </c>
       <c r="I210" s="23" t="n">
         <v>2202.37288</v>
       </c>
       <c r="J210" s="33" t="n">
-        <v>689.6034700000001</v>
+        <v>2726.61432</v>
       </c>
       <c r="K210" s="23" t="n">
         <v>3842.7958</v>
       </c>
       <c r="L210" s="23" t="n">
-        <v>4335.72713</v>
+        <v>4378.02904</v>
       </c>
       <c r="M210" s="23" t="n">
-        <v>7229.294809999999</v>
-      </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+        <v>7264.27042</v>
+      </c>
+      <c r="N210" s="23" t="n">
+        <v>7764.449</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>131.67476</v>
@@ -9670,7 +10142,7 @@
         <v>242.32069</v>
       </c>
       <c r="J211" s="21" t="n">
-        <v>143.185</v>
+        <v>257.64271</v>
       </c>
       <c r="K211" s="22" t="n">
         <v>313.7313</v>
@@ -9681,12 +10153,17 @@
       <c r="M211" s="22" t="n">
         <v>115.9736</v>
       </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+      <c r="N211" s="22" t="n">
+        <v>514.293</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>114.25152</v>
@@ -9704,29 +10181,34 @@
         <v>441.77044</v>
       </c>
       <c r="H212" s="21" t="n">
-        <v>338.3009499999999</v>
+        <v>338.30095</v>
       </c>
       <c r="I212" s="22" t="n">
         <v>1960.05219</v>
       </c>
       <c r="J212" s="21" t="n">
-        <v>546.4184700000001</v>
+        <v>2468.97161</v>
       </c>
       <c r="K212" s="22" t="n">
-        <v>3529.0645</v>
+        <v>3529.064499999999</v>
       </c>
       <c r="L212" s="22" t="n">
-        <v>4271.70181</v>
+        <v>4314.00372</v>
       </c>
       <c r="M212" s="22" t="n">
-        <v>7113.32121</v>
-      </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+        <v>7148.29682</v>
+      </c>
+      <c r="N212" s="22" t="n">
+        <v>7250.156</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>3.4606</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>1271.43424</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>1331.957</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>3.4606</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>60.41676</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>44.125</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>0</v>
@@ -9881,18 +10378,23 @@
       <c r="M216" s="35" t="n">
         <v>1211.01748</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>1287.832</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
         <v>588260.3733099999</v>
       </c>
       <c r="D217" s="23" t="n">
-        <v>626067.3890799999</v>
+        <v>626067.38908</v>
       </c>
       <c r="E217" s="23" t="n">
         <v>675143.14578</v>
@@ -9901,32 +10403,37 @@
         <v>768685.90493</v>
       </c>
       <c r="G217" s="23" t="n">
-        <v>830472.29431</v>
+        <v>830472.2943099999</v>
       </c>
       <c r="H217" s="33" t="n">
-        <v>974707.17344</v>
+        <v>974710.60372</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>1112572.60071</v>
+        <v>1130769.8174</v>
       </c>
       <c r="J217" s="33" t="n">
-        <v>1074200.88269</v>
+        <v>1294828.19815</v>
       </c>
       <c r="K217" s="23" t="n">
         <v>1413290.25411</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>1626185.68202</v>
+        <v>1632056.05652</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>1796189.39264</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>1813605.36177</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>2555787.062</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
         <v>521063.78083</v>
@@ -9938,41 +10445,46 @@
         <v>480115.90163</v>
       </c>
       <c r="F218" s="33" t="n">
-        <v>510196.5765499999</v>
+        <v>510196.57655</v>
       </c>
       <c r="G218" s="23" t="n">
         <v>446142.6937299999</v>
       </c>
       <c r="H218" s="33" t="n">
-        <v>482970.71203</v>
+        <v>482975.71203</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>522499.12314</v>
+        <v>531936.125</v>
       </c>
       <c r="J218" s="33" t="n">
-        <v>554946.93577</v>
+        <v>582217.89112</v>
       </c>
       <c r="K218" s="23" t="n">
-        <v>620513.33687</v>
+        <v>620513.3368699999</v>
       </c>
       <c r="L218" s="23" t="n">
-        <v>679990.24947</v>
+        <v>684647.7427300001</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>712010.8999399999</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>723659.02295</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>891319.076</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>432345.6124</v>
       </c>
       <c r="D219" s="22" t="n">
-        <v>373779.4375999999</v>
+        <v>373779.4376</v>
       </c>
       <c r="E219" s="22" t="n">
         <v>406869.47211</v>
@@ -9984,29 +10496,34 @@
         <v>398331.6546799999</v>
       </c>
       <c r="H219" s="21" t="n">
-        <v>435564.75247</v>
+        <v>435569.75247</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>475014.88615</v>
+        <v>484315.88615</v>
       </c>
       <c r="J219" s="21" t="n">
-        <v>522647.78195</v>
+        <v>549917.7819500001</v>
       </c>
       <c r="K219" s="22" t="n">
         <v>593253.24405</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>655249.8992000001</v>
+        <v>663448.3572000001</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>685554.42371</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>708264.43172</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>924880.781</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>16527.71043</v>
@@ -10036,23 +10553,28 @@
         <v>13605.72737</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>15142.50222</v>
+        <v>19328.78622</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>13761.70762</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>25006.22382</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>73766.14200000001</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>105251.11209</v>
       </c>
       <c r="D221" s="22" t="n">
-        <v>97858.98256999999</v>
+        <v>97858.98257000001</v>
       </c>
       <c r="E221" s="22" t="n">
         <v>87746.07812000001</v>
@@ -10064,29 +10586,34 @@
         <v>59635.9077</v>
       </c>
       <c r="H221" s="21" t="n">
-        <v>57638.14077000001</v>
+        <v>57638.14077</v>
       </c>
       <c r="I221" s="22" t="n">
-        <v>57144.93066999999</v>
+        <v>57280.93252999999</v>
       </c>
       <c r="J221" s="21" t="n">
-        <v>45097.38265000001</v>
+        <v>45098.338</v>
       </c>
       <c r="K221" s="22" t="n">
         <v>41063.26654</v>
       </c>
       <c r="L221" s="22" t="n">
-        <v>39948.90652</v>
+        <v>40594.22578</v>
       </c>
       <c r="M221" s="22" t="n">
-        <v>40284.23788</v>
-      </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+        <v>40466.86908</v>
+      </c>
+      <c r="N221" s="22" t="n">
+        <v>40270.473</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>5.23323</v>
@@ -10121,12 +10648,17 @@
       <c r="M222" s="22" t="n">
         <v>66.05403</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>66.036</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>1940.04544</v>
@@ -10138,7 +10670,7 @@
         <v>9219.736929999999</v>
       </c>
       <c r="F223" s="33" t="n">
-        <v>9503.900760000002</v>
+        <v>9503.90076</v>
       </c>
       <c r="G223" s="23" t="n">
         <v>8508.54903</v>
@@ -10156,17 +10688,22 @@
         <v>59813.24368</v>
       </c>
       <c r="L223" s="23" t="n">
-        <v>148576.42455</v>
+        <v>148619.97305</v>
       </c>
       <c r="M223" s="23" t="n">
-        <v>139210.6156</v>
-      </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+        <v>140300.30944</v>
+      </c>
+      <c r="N223" s="23" t="n">
+        <v>102174.008</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>0</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>600.90613</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>600.9059999999999</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>423.52762</v>
@@ -10270,23 +10817,28 @@
         <v>1336.242</v>
       </c>
       <c r="J226" s="21" t="n">
-        <v>61.34582</v>
+        <v>61.34582000000001</v>
       </c>
       <c r="K226" s="22" t="n">
         <v>49.90514</v>
       </c>
       <c r="L226" s="22" t="n">
-        <v>3987.91771</v>
+        <v>4016.66621</v>
       </c>
       <c r="M226" s="22" t="n">
-        <v>4158.1205</v>
-      </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+        <v>4168.75034</v>
+      </c>
+      <c r="N226" s="22" t="n">
+        <v>840.479</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>1.73844</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>737.1180000000001</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10359,14 +10916,19 @@
         <v>120342.33116</v>
       </c>
       <c r="M228" s="22" t="n">
-        <v>103810.38875</v>
-      </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+        <v>104634.45275</v>
+      </c>
+      <c r="N228" s="22" t="n">
+        <v>77249.46000000001</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>2180.46957</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>2271.372</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>1514.77938</v>
@@ -10436,17 +11003,22 @@
         <v>12802.26186</v>
       </c>
       <c r="L230" s="22" t="n">
-        <v>22115.82568</v>
+        <v>22130.62568</v>
       </c>
       <c r="M230" s="22" t="n">
-        <v>28460.73065</v>
-      </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+        <v>28715.73065</v>
+      </c>
+      <c r="N230" s="22" t="n">
+        <v>20474.673</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
         <v>151685.84907</v>
@@ -10467,26 +11039,31 @@
         <v>267634.63085</v>
       </c>
       <c r="I231" s="23" t="n">
-        <v>269618.29601</v>
+        <v>272739.04261</v>
       </c>
       <c r="J231" s="33" t="n">
-        <v>329161.46923</v>
+        <v>349674.93262</v>
       </c>
       <c r="K231" s="23" t="n">
         <v>299989.96503</v>
       </c>
       <c r="L231" s="23" t="n">
-        <v>291423.81628</v>
+        <v>293734.34515</v>
       </c>
       <c r="M231" s="23" t="n">
-        <v>306460.95262</v>
-      </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+        <v>308820.61523</v>
+      </c>
+      <c r="N231" s="23" t="n">
+        <v>324374.942</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
         <v>36161.19718</v>
@@ -10498,7 +11075,7 @@
         <v>40253.4224</v>
       </c>
       <c r="F232" s="21" t="n">
-        <v>39194.75013</v>
+        <v>39194.75012999999</v>
       </c>
       <c r="G232" s="22" t="n">
         <v>44639.57036</v>
@@ -10507,26 +11084,31 @@
         <v>49482.7311</v>
       </c>
       <c r="I232" s="22" t="n">
-        <v>54514.35785</v>
+        <v>54719.69899</v>
       </c>
       <c r="J232" s="21" t="n">
-        <v>43856.27808</v>
+        <v>64369.74147</v>
       </c>
       <c r="K232" s="22" t="n">
-        <v>64764.83448999999</v>
+        <v>64764.83449</v>
       </c>
       <c r="L232" s="22" t="n">
-        <v>71027.53442</v>
+        <v>71078.53386</v>
       </c>
       <c r="M232" s="22" t="n">
-        <v>78180.42825</v>
-      </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+        <v>78320.06926</v>
+      </c>
+      <c r="N232" s="22" t="n">
+        <v>80883.16</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>46367.84271</v>
@@ -10538,7 +11120,7 @@
         <v>46367.73057</v>
       </c>
       <c r="F233" s="21" t="n">
-        <v>701.3724700000001</v>
+        <v>701.37247</v>
       </c>
       <c r="G233" s="22" t="n">
         <v>47701.01959</v>
@@ -10556,17 +11138,22 @@
         <v>1131.94638</v>
       </c>
       <c r="L233" s="22" t="n">
-        <v>1333.2764</v>
+        <v>1333.66836</v>
       </c>
       <c r="M233" s="22" t="n">
-        <v>745.90837</v>
-      </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+        <v>1130.70562</v>
+      </c>
+      <c r="N233" s="22" t="n">
+        <v>1075.863</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
         <v>49010.15267</v>
@@ -10578,16 +11165,16 @@
         <v>62188.05665</v>
       </c>
       <c r="F234" s="21" t="n">
-        <v>78272.52493000001</v>
+        <v>78272.52492999999</v>
       </c>
       <c r="G234" s="22" t="n">
-        <v>89022.60901</v>
+        <v>89022.60900999999</v>
       </c>
       <c r="H234" s="21" t="n">
         <v>106529.5053</v>
       </c>
       <c r="I234" s="22" t="n">
-        <v>122920.93699</v>
+        <v>123140.03042</v>
       </c>
       <c r="J234" s="21" t="n">
         <v>156188.97883</v>
@@ -10596,23 +11183,28 @@
         <v>111257.55873</v>
       </c>
       <c r="L234" s="22" t="n">
-        <v>118439.43648</v>
+        <v>118606.69231</v>
       </c>
       <c r="M234" s="22" t="n">
-        <v>125811.36668</v>
-      </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+        <v>126550.86696</v>
+      </c>
+      <c r="N234" s="22" t="n">
+        <v>139409.162</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>354.94343</v>
       </c>
       <c r="D235" s="22" t="n">
-        <v>304.8356700000001</v>
+        <v>304.83567</v>
       </c>
       <c r="E235" s="22" t="n">
         <v>696.2149199999999</v>
@@ -10641,18 +11233,23 @@
       <c r="M235" s="22" t="n">
         <v>2383.21479</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>2383.216</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>19791.71308</v>
       </c>
       <c r="D236" s="22" t="n">
-        <v>7935.991099999999</v>
+        <v>7935.9911</v>
       </c>
       <c r="E236" s="22" t="n">
         <v>6785.678680000001</v>
@@ -10664,10 +11261,10 @@
         <v>13509.0885</v>
       </c>
       <c r="H236" s="21" t="n">
-        <v>43157.59078</v>
+        <v>43157.59077999999</v>
       </c>
       <c r="I236" s="22" t="n">
-        <v>43416.54958000001</v>
+        <v>46112.86161</v>
       </c>
       <c r="J236" s="21" t="n">
         <v>126107.12182</v>
@@ -10676,17 +11273,22 @@
         <v>120742.41064</v>
       </c>
       <c r="L236" s="22" t="n">
-        <v>97930.95408000001</v>
+        <v>100022.83572</v>
       </c>
       <c r="M236" s="22" t="n">
-        <v>99340.03453</v>
-      </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+        <v>100435.7586</v>
+      </c>
+      <c r="N236" s="22" t="n">
+        <v>100623.541</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
         <v>111053.70269</v>
@@ -10707,26 +11309,31 @@
         <v>252479.8726</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>292707.18674</v>
+        <v>297612.99455</v>
       </c>
       <c r="J237" s="33" t="n">
-        <v>245890.53574</v>
+        <v>378744.27326</v>
       </c>
       <c r="K237" s="23" t="n">
         <v>418531.76028</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>507434.62113</v>
+        <v>510074.88555</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>627062.08536</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>634220.8171500001</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>864394.518</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
         <v>-242657.5877</v>
@@ -10744,35 +11351,40 @@
         <v>-154692.56159</v>
       </c>
       <c r="H238" s="33" t="n">
-        <v>-163962.30866</v>
+        <v>-163963.18258</v>
       </c>
       <c r="I238" s="23" t="n">
-        <v>-162192.34964</v>
+        <v>-162196.64925</v>
       </c>
       <c r="J238" s="33" t="n">
-        <v>-171054.19032</v>
+        <v>-170925.9168</v>
       </c>
       <c r="K238" s="23" t="n">
         <v>-137049.84609</v>
       </c>
       <c r="L238" s="23" t="n">
-        <v>-156350.39335</v>
+        <v>-159714.57056</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-200212.45515</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-205097.69201</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-247139.005</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
         <v>45174.58298000001</v>
       </c>
       <c r="D239" s="23" t="n">
-        <v>43231.37022999999</v>
+        <v>43231.37023000001</v>
       </c>
       <c r="E239" s="23" t="n">
         <v>56353.27103</v>
@@ -10784,29 +11396,34 @@
         <v>135510.41311</v>
       </c>
       <c r="H239" s="33" t="n">
-        <v>119562.17072</v>
+        <v>119561.47492</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>176975.75078</v>
+        <v>177713.71081</v>
       </c>
       <c r="J239" s="33" t="n">
-        <v>48315.88343</v>
+        <v>88176.76910999999</v>
       </c>
       <c r="K239" s="23" t="n">
         <v>151491.79434</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>155110.96394</v>
+        <v>154693.6806</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>211657.29427</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>211702.28901</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>620663.523</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
         <v>63968.99933</v>
@@ -10815,10 +11432,10 @@
         <v>55248.42403</v>
       </c>
       <c r="E240" s="22" t="n">
-        <v>90054.96264</v>
+        <v>90054.96263999998</v>
       </c>
       <c r="F240" s="21" t="n">
-        <v>95181.18849000002</v>
+        <v>95181.18849</v>
       </c>
       <c r="G240" s="22" t="n">
         <v>147471.06587</v>
@@ -10827,26 +11444,31 @@
         <v>132964.79518</v>
       </c>
       <c r="I240" s="22" t="n">
-        <v>193659.8304</v>
+        <v>194397.79043</v>
       </c>
       <c r="J240" s="21" t="n">
-        <v>80550.34251</v>
+        <v>120430.50784</v>
       </c>
       <c r="K240" s="22" t="n">
         <v>166119.99456</v>
       </c>
       <c r="L240" s="22" t="n">
-        <v>211879.88981</v>
+        <v>211974.27309</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>261111.54182</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>263795.55823</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>656650.125</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
         <v>18794.41635</v>
@@ -10864,29 +11486,34 @@
         <v>11960.65276</v>
       </c>
       <c r="H241" s="21" t="n">
-        <v>13402.62446</v>
+        <v>13403.32026</v>
       </c>
       <c r="I241" s="22" t="n">
         <v>16684.07962</v>
       </c>
       <c r="J241" s="21" t="n">
-        <v>32234.45908</v>
+        <v>32253.73873</v>
       </c>
       <c r="K241" s="22" t="n">
         <v>14628.20022</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>56768.92587000001</v>
+        <v>57280.59249</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>49454.24755</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>52093.26922000001</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>35986.602</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
         <v>1137862.57019</v>
@@ -10904,26 +11531,29 @@
         <v>1746304.72463</v>
       </c>
       <c r="H242" s="48" t="n">
-        <v>2148682.87781</v>
+        <v>2148686.308089999</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>2548918.27365</v>
+        <v>2578843.23452</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>2607085.32687</v>
+        <v>2858842.21127</v>
       </c>
       <c r="K242" s="47" t="n">
         <v>3247414.10959</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>3839786.19265</v>
+        <v>3877498.67117</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>4242763.878939999</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>4331054.79823</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>6114926.741</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>618</v>
@@ -10960,26 +11593,29 @@
         <v>569</v>
       </c>
       <c r="H244" s="53" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I244" s="52" t="n">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="J244" s="53" t="n">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="K244" s="52" t="n">
         <v>554</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>543</v>
+        <v>599</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>559</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>618</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>811</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>